--- a/backup/Alimentos/normativa del reglamento/requisitos2.xlsx
+++ b/backup/Alimentos/normativa del reglamento/requisitos2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7680" tabRatio="964" firstSheet="5" activeTab="5"/>
+    <workbookView windowWidth="20400" windowHeight="8280" tabRatio="964" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="cafeteria 2 " sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="286">
   <si>
     <t>{"Requisite":{"id":</t>
   </si>
@@ -1047,6 +1047,12 @@
     <t>714 – 755</t>
   </si>
   <si>
+    <t>servicio</t>
+  </si>
+  <si>
+    <t>cocina</t>
+  </si>
+  <si>
     <t xml:space="preserve">,"register_type_id":33},"attach":[]},
 </t>
   </si>
@@ -1203,10 +1209,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1285,8 +1291,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,37 +1330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1344,9 +1343,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1354,7 +1360,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1368,7 +1381,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1389,32 +1418,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1459,7 +1465,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,13 +1501,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,19 +1597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,61 +1615,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,67 +1639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,16 +1831,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1864,161 +1881,150 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2026,7 +2032,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2114,6 +2120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2603,7 +2610,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6"/>
@@ -4017,7 +4024,7 @@
 </v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" ht="12.75" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4049,7 +4056,7 @@
 </v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" ht="12.75" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4081,7 +4088,7 @@
 </v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" ht="12.75" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4113,7 +4120,7 @@
 </v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" ht="12.75" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4145,7 +4152,7 @@
 </v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" ht="12.75" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4273,7 +4280,7 @@
 </v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" ht="12.75" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4369,7 +4376,7 @@
 </v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" ht="12.75" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4433,7 +4440,7 @@
 </v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" ht="12.75" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4529,7 +4536,7 @@
 </v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" ht="12.75" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4561,7 +4568,7 @@
 </v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" ht="12.75" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4689,7 +4696,7 @@
 </v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" ht="12.75" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4721,7 +4728,7 @@
 </v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" ht="12.75" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4753,7 +4760,7 @@
 </v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" ht="12.75" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4855,7 +4862,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" ht="33.75" customHeight="1" spans="1:11">
@@ -7001,7 +7008,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:11">
@@ -9808,7 +9815,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:11">
@@ -11764,7 +11771,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" ht="31.5" customHeight="1" spans="1:11">
@@ -12704,7 +12711,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" ht="29.25" customHeight="1" spans="1:11">
@@ -13552,7 +13559,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" ht="45.75" customHeight="1" spans="1:11">
@@ -17247,7 +17254,7 @@
       <c r="E3" s="21">
         <v>1</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="38" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -19832,7 +19839,7 @@
       <c r="J86" s="17">
         <v>0</v>
       </c>
-      <c r="K86" s="38" t="str">
+      <c r="K86" s="39" t="str">
         <f>CONCATENATE($A$1,A86,$B$1,B86,$C$1,B86,$D$1,D86,$E$1,E86,$F$1,F86,$G$1,G86,$H$1,$I$1,I86,$J$1,J86,$K$1)</f>
         <v>{"Requisite":{"id":219,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Respetando los parámetros del ARCSA en relación de uso del aceite","description":"Respetando los parámetros del ARCSA en relación de uso del aceite","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,39","score":0,"register_type_id":11},"attach":[]},
 </v>
@@ -19863,7 +19870,7 @@
       <c r="J87" s="17">
         <v>6</v>
       </c>
-      <c r="K87" s="38" t="str">
+      <c r="K87" s="39" t="str">
         <f>CONCATENATE($A$1,A87,$B$1,B87,$C$1,B87,$D$1,D87,$E$1,E87,$F$1,F87,$G$1,G87,$H$1,$I$1,I87,$J$1,J87,$K$1)</f>
         <v>{"Requisite":{"id":220,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con un plan maestro de limpieza.","description":"Cuenta con un plan maestro de limpieza.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,4","score":6,"register_type_id":11},"attach":[]},
 </v>
@@ -19894,7 +19901,7 @@
       <c r="J88" s="17">
         <v>4</v>
       </c>
-      <c r="K88" s="38" t="str">
+      <c r="K88" s="39" t="str">
         <f>CONCATENATE($A$1,A88,$B$1,B88,$C$1,B88,$D$1,D88,$E$1,E88,$F$1,F88,$G$1,G88,$H$1,$I$1,I88,$J$1,J88,$K$1)</f>
         <v>{"Requisite":{"id":221,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las áreas de servicio cuentan con sistemas de ventilación natural y/o forzada que permita el flujo del aire y la no acumulación de olores.","description":"Las áreas de servicio cuentan con sistemas de ventilación natural y/o forzada que permita el flujo del aire y la no acumulación de olores.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,41","score":4,"register_type_id":11},"attach":[]},
 </v>
@@ -19925,7 +19932,7 @@
       <c r="J89" s="17">
         <v>4</v>
       </c>
-      <c r="K89" s="38" t="str">
+      <c r="K89" s="39" t="str">
         <f>CONCATENATE($A$1,A89,$B$1,B89,$C$1,B89,$D$1,D89,$E$1,E89,$F$1,F89,$G$1,G89,$H$1,$I$1,I89,$J$1,J89,$K$1)</f>
         <v>{"Requisite":{"id":222,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con vestíbulo o sala de espera, en el cual podrá instalarse un bar independiente del comedor del restaurante","description":"Cuenta con vestíbulo o sala de espera, en el cual podrá instalarse un bar independiente del comedor del restaurante","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,42","score":4,"register_type_id":11},"attach":[]},
 </v>
@@ -23019,7 +23026,7 @@
   <sheetPr/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19:F26"/>
     </sheetView>
   </sheetViews>
@@ -25255,10 +25262,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -25468,6 +25475,106 @@
       </c>
       <c r="G9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" s="37"/>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -25539,7 +25646,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:11">
@@ -26966,7 +27073,7 @@
         <v>421</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">

--- a/backup/Alimentos/normativa del reglamento/requisitos2.xlsx
+++ b/backup/Alimentos/normativa del reglamento/requisitos2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8280" tabRatio="964" firstSheet="5" activeTab="7"/>
+    <workbookView windowWidth="20490" windowHeight="7680" tabRatio="964"/>
   </bookViews>
   <sheets>
     <sheet name="cafeteria 2 " sheetId="1" r:id="rId1"/>
@@ -1209,10 +1209,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1284,15 +1284,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1306,18 +1306,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1329,61 +1329,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1403,16 +1353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1426,13 +1368,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFCE181E"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,7 +1471,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,7 +1579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,61 +1597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,13 +1615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,37 +1633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,19 +1645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,6 +1803,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1831,6 +1852,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1847,6 +1883,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1855,176 +1900,137 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2032,7 +2038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2121,6 +2127,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2519,14 +2526,14 @@
   <sheetPr/>
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G43" sqref="G10:G44;G19:G43"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="1" width="8.46666666666667" customWidth="1"/>
-    <col min="2" max="2" width="63.4" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="6.80833333333333" customWidth="1"/>
     <col min="4" max="4" width="9.30833333333333" customWidth="1"/>
     <col min="5" max="5" width="12.3666666666667" customWidth="1"/>
@@ -2610,7 +2617,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6"/>
@@ -2631,11 +2638,11 @@
         <v>3.1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE($A$1,A3,$B$1,B3,$C$1,B3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,$I$1,I3,$J$1,J3,$K$1)</f>
-        <v>{"Requisite":{"id":2,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":2,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -2664,11 +2671,11 @@
         <v>3.2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE($A$1,A4,$B$1,B4,$C$1,B4,$D$1,D4,$E$1,E4,$F$1,F4,$G$1,G4,$H$1,$I$1,I4,$J$1,J4,$K$1)</f>
-        <v>{"Requisite":{"id":3,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":3,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -2697,11 +2704,11 @@
         <v>3.3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
         <f>CONCATENATE($A$1,A5,$B$1,B5,$C$1,B5,$D$1,D5,$E$1,E5,$F$1,F5,$G$1,G5,$H$1,$I$1,I5,$J$1,J5,$K$1)</f>
-        <v>{"Requisite":{"id":4,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":4,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -2730,11 +2737,11 @@
         <v>3.4</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="str">
         <f>CONCATENATE($A$1,A6,$B$1,B6,$C$1,B6,$D$1,D6,$E$1,E6,$F$1,F6,$G$1,G6,$H$1,$I$1,I6,$J$1,J6,$K$1)</f>
-        <v>{"Requisite":{"id":5,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":5,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -2763,11 +2770,11 @@
         <v>3.5</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="str">
         <f>CONCATENATE($A$1,A7,$B$1,B7,$C$1,B7,$D$1,D7,$E$1,E7,$F$1,F7,$G$1,G7,$H$1,$I$1,I7,$J$1,J7,$K$1)</f>
-        <v>{"Requisite":{"id":6,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con iluminación de emergencia.","description":"Contar con iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":6,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con iluminación de emergencia.","description":"Contar con iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -2796,11 +2803,11 @@
         <v>3.6</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE($A$1,A8,$B$1,B8,$C$1,B8,$D$1,D8,$E$1,E8,$F$1,F8,$G$1,G8,$H$1,$I$1,I8,$J$1,J8,$K$1)</f>
-        <v>{"Requisite":{"id":7,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":7,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -2862,11 +2869,11 @@
         <v>26</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="str">
         <f>CONCATENATE($A$1,A10,$B$1,B10,$C$1,B10,$D$1,D10,$E$1,E10,$F$1,F10,$G$1,G10,$H$1,$I$1,I10,$J$1,J10,$K$1)</f>
-        <v>{"Requisite":{"id":9,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.1","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":9,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.1","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -2895,11 +2902,11 @@
         <v>28</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE($A$1,A11,$B$1,B11,$C$1,B11,$D$1,D11,$E$1,E11,$F$1,F11,$G$1,G11,$H$1,$I$1,I11,$J$1,J11,$K$1)</f>
-        <v>{"Requisite":{"id":10,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.2","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":10,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.2","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -2928,11 +2935,11 @@
         <v>30</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="str">
         <f>CONCATENATE($A$1,A12,$B$1,B12,$C$1,B12,$D$1,D12,$E$1,E12,$F$1,F12,$G$1,G12,$H$1,$I$1,I12,$J$1,J12,$K$1)</f>
-        <v>{"Requisite":{"id":11,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.3","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":11,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.3","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -2961,11 +2968,11 @@
         <v>3.8</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="str">
         <f>CONCATENATE($A$1,A13,$B$1,B13,$C$1,B13,$D$1,D13,$E$1,E13,$F$1,F13,$G$1,G13,$H$1,$I$1,I13,$J$1,J13,$K$1)</f>
-        <v>{"Requisite":{"id":12,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,8","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":12,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,8","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -2994,11 +3001,11 @@
         <v>3.9</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="str">
         <f>CONCATENATE($A$1,A14,$B$1,B14,$C$1,B14,$D$1,D14,$E$1,E14,$F$1,F14,$G$1,G14,$H$1,$I$1,I14,$J$1,J14,$K$1)</f>
-        <v>{"Requisite":{"id":13,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":13,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3027,11 +3034,11 @@
         <v>3.1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="str">
         <f>CONCATENATE($A$1,A15,$B$1,B15,$C$1,B15,$D$1,D15,$E$1,E15,$F$1,F15,$G$1,G15,$H$1,$I$1,I15,$J$1,J15,$K$1)</f>
-        <v>{"Requisite":{"id":14,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":14,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3060,11 +3067,11 @@
         <v>3.11</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE($A$1,A16,$B$1,B16,$C$1,B16,$D$1,D16,$E$1,E16,$F$1,F16,$G$1,G16,$H$1,$I$1,I16,$J$1,J16,$K$1)</f>
-        <v>{"Requisite":{"id":15,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":15,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3093,11 +3100,11 @@
         <v>3.12</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="str">
         <f>CONCATENATE($A$1,A17,$B$1,B17,$C$1,B17,$D$1,D17,$E$1,E17,$F$1,F17,$G$1,G17,$H$1,$I$1,I17,$J$1,J17,$K$1)</f>
-        <v>{"Requisite":{"id":16,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento de acuerdo a los establecido por la autoridad competente","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento de acuerdo a los establecido por la autoridad competente","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":16,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento de acuerdo a los establecido por la autoridad competente","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento de acuerdo a los establecido por la autoridad competente","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3126,11 +3133,11 @@
         <v>3.13</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="str">
         <f>CONCATENATE($A$1,A18,$B$1,B18,$C$1,B18,$D$1,D18,$E$1,E18,$F$1,F18,$G$1,G18,$H$1,$I$1,I18,$J$1,J18,$K$1)</f>
-        <v>{"Requisite":{"id":17,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación de alimentos.","description":"Contar con sumideros en áreas de preparación de alimentos.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":17,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación de alimentos.","description":"Contar con sumideros en áreas de preparación de alimentos.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3159,11 +3166,11 @@
         <v>3.14</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE($A$1,A19,$B$1,B19,$C$1,B19,$D$1,D19,$E$1,E19,$F$1,F19,$G$1,G19,$H$1,$I$1,I19,$J$1,J19,$K$1)</f>
-        <v>{"Requisite":{"id":18,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":18,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3192,11 +3199,11 @@
         <v>3.15</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="str">
         <f>CONCATENATE($A$1,A20,$B$1,B20,$C$1,B20,$D$1,D20,$E$1,E20,$F$1,F20,$G$1,G20,$H$1,$I$1,I20,$J$1,J20,$K$1)</f>
-        <v>{"Requisite":{"id":19,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Nota: se exceptúa para los centros comerciales y/o edificaciones que compartan baños que a su vez cumplan con el marco legal.","description":"Nota: se exceptúa para los centros comerciales y/o edificaciones que compartan baños que a su vez cumplan con el marco legal.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":19,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Nota: se exceptúa para los centros comerciales y/o edificaciones que compartan baños que a su vez cumplan con el marco legal.","description":"Nota: se exceptúa para los centros comerciales y/o edificaciones que compartan baños que a su vez cumplan con el marco legal.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3225,11 +3232,11 @@
         <v>3.16</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="str">
         <f>CONCATENATE($A$1,A21,$B$1,B21,$C$1,B21,$D$1,D21,$E$1,E21,$F$1,F21,$G$1,G21,$H$1,$I$1,I21,$J$1,J21,$K$1)</f>
-        <v>{"Requisite":{"id":20,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":20,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3258,11 +3265,11 @@
         <v>3.17</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="str">
         <f>CONCATENATE($A$1,A22,$B$1,B22,$C$1,B22,$D$1,D22,$E$1,E22,$F$1,F22,$G$1,G22,$H$1,$I$1,I22,$J$1,J22,$K$1)</f>
-        <v>{"Requisite":{"id":21,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":21,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3291,11 +3298,11 @@
         <v>3.18</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="str">
         <f>CONCATENATE($A$1,A23,$B$1,B23,$C$1,B23,$D$1,D23,$E$1,E23,$F$1,F23,$G$1,G23,$H$1,$I$1,I23,$J$1,J23,$K$1)</f>
-        <v>{"Requisite":{"id":22,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":22,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3324,11 +3331,11 @@
         <v>3.19</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="str">
         <f>CONCATENATE($A$1,A24,$B$1,B24,$C$1,B24,$D$1,D24,$E$1,E24,$F$1,F24,$G$1,G24,$H$1,$I$1,I24,$J$1,J24,$K$1)</f>
-        <v>{"Requisite":{"id":23,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal del establecimiento debe usar protector para el cabello.","description":"El personal del establecimiento debe usar protector para el cabello.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":23,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal del establecimiento debe usar protector para el cabello.","description":"El personal del establecimiento debe usar protector para el cabello.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3357,11 +3364,11 @@
         <v>3.2</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="str">
         <f>CONCATENATE($A$1,A25,$B$1,B25,$C$1,B25,$D$1,D25,$E$1,E25,$F$1,F25,$G$1,G25,$H$1,$I$1,I25,$J$1,J25,$K$1)</f>
-        <v>{"Requisite":{"id":24,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":24,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3390,11 +3397,11 @@
         <v>3.21</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="str">
         <f>CONCATENATE($A$1,A26,$B$1,B26,$C$1,B26,$D$1,D26,$E$1,E26,$F$1,F26,$G$1,G26,$H$1,$I$1,I26,$J$1,J26,$K$1)</f>
-        <v>{"Requisite":{"id":25,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Contar con registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":25,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Contar con registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3423,11 +3430,11 @@
         <v>3.22</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="str">
         <f>CONCATENATE($A$1,A27,$B$1,B27,$C$1,B27,$D$1,D27,$E$1,E27,$F$1,F27,$G$1,G27,$H$1,$I$1,I27,$J$1,J27,$K$1)</f>
-        <v>{"Requisite":{"id":26,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":26,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3456,11 +3463,11 @@
         <v>3.23</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="str">
         <f>CONCATENATE($A$1,A28,$B$1,B28,$C$1,B28,$D$1,D28,$E$1,E28,$F$1,F28,$G$1,G28,$H$1,$I$1,I28,$J$1,J28,$K$1)</f>
-        <v>{"Requisite":{"id":27,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":27,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3489,11 +3496,11 @@
         <v>3.24</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="str">
         <f>CONCATENATE($A$1,A29,$B$1,B29,$C$1,B29,$D$1,D29,$E$1,E29,$F$1,F29,$G$1,G29,$H$1,$I$1,I29,$J$1,J29,$K$1)</f>
-        <v>{"Requisite":{"id":28,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega(s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","description":"Contar con bodega(s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":28,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega(s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","description":"Contar con bodega(s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3522,11 +3529,11 @@
         <v>3.25</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="str">
         <f>CONCATENATE($A$1,A30,$B$1,B30,$C$1,B30,$D$1,D30,$E$1,E30,$F$1,F30,$G$1,G30,$H$1,$I$1,I30,$J$1,J30,$K$1)</f>
-        <v>{"Requisite":{"id":29,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras). ","description":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras). ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":29,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras). ","description":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras). ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3555,11 +3562,11 @@
         <v>3.26</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="str">
         <f>CONCATENATE($A$1,A31,$B$1,B31,$C$1,B31,$D$1,D31,$E$1,E31,$F$1,F31,$G$1,G31,$H$1,$I$1,I31,$J$1,J31,$K$1)</f>
-        <v>{"Requisite":{"id":30,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":30,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3588,11 +3595,11 @@
         <v>3.27</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="str">
         <f>CONCATENATE($A$1,A32,$B$1,B32,$C$1,B32,$D$1,D32,$E$1,E32,$F$1,F32,$G$1,G32,$H$1,$I$1,I32,$J$1,J32,$K$1)</f>
-        <v>{"Requisite":{"id":31,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":31,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3621,11 +3628,11 @@
         <v>3.28</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="str">
         <f>CONCATENATE($A$1,A33,$B$1,B33,$C$1,B33,$D$1,D33,$E$1,E33,$F$1,F33,$G$1,G33,$H$1,$I$1,I33,$J$1,J33,$K$1)</f>
-        <v>{"Requisite":{"id":32,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":32,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3654,11 +3661,11 @@
         <v>3.29</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="str">
         <f>CONCATENATE($A$1,A34,$B$1,B34,$C$1,B34,$D$1,D34,$E$1,E34,$F$1,F34,$G$1,G34,$H$1,$I$1,I34,$J$1,J34,$K$1)</f>
-        <v>{"Requisite":{"id":33,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":33,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3687,11 +3694,11 @@
         <v>3.3</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="str">
         <f>CONCATENATE($A$1,A35,$B$1,B35,$C$1,B35,$D$1,D35,$E$1,E35,$F$1,F35,$G$1,G35,$H$1,$I$1,I35,$J$1,J35,$K$1)</f>
-        <v>{"Requisite":{"id":34,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":34,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3720,11 +3727,11 @@
         <v>3.31</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="str">
         <f>CONCATENATE($A$1,A36,$B$1,B36,$C$1,B36,$D$1,D36,$E$1,E36,$F$1,F36,$G$1,G36,$H$1,$I$1,I36,$J$1,J36,$K$1)</f>
-        <v>{"Requisite":{"id":35,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":35,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3753,11 +3760,11 @@
         <v>3.32</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="str">
         <f>CONCATENATE($A$1,A37,$B$1,B37,$C$1,B37,$D$1,D37,$E$1,E37,$F$1,F37,$G$1,G37,$H$1,$I$1,I37,$J$1,J37,$K$1)</f>
-        <v>{"Requisite":{"id":36,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":36,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3786,11 +3793,11 @@
         <v>3.33</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="str">
         <f>CONCATENATE($A$1,A38,$B$1,B38,$C$1,B38,$D$1,D38,$E$1,E38,$F$1,F38,$G$1,G38,$H$1,$I$1,I38,$J$1,J38,$K$1)</f>
-        <v>{"Requisite":{"id":37,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":37,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3819,11 +3826,11 @@
         <v>3.34</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="str">
         <f>CONCATENATE($A$1,A39,$B$1,B39,$C$1,B39,$D$1,D39,$E$1,E39,$F$1,F39,$G$1,G39,$H$1,$I$1,I39,$J$1,J39,$K$1)</f>
-        <v>{"Requisite":{"id":38,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salida(s) de emergencia identificadas y habilitadas.","description":"Contar con salida(s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":38,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salida(s) de emergencia identificadas y habilitadas.","description":"Contar con salida(s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3852,11 +3859,11 @@
         <v>3.35</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="str">
         <f>CONCATENATE($A$1,A40,$B$1,B40,$C$1,B40,$D$1,D40,$E$1,E40,$F$1,F40,$G$1,G40,$H$1,$I$1,I40,$J$1,J40,$K$1)</f>
-        <v>{"Requisite":{"id":39,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro continuo de energía eléctrica.","description":"Contar con suministro continuo de energía eléctrica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":39,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro continuo de energía eléctrica.","description":"Contar con suministro continuo de energía eléctrica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3885,11 +3892,11 @@
         <v>3.36</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="str">
         <f>CONCATENATE($A$1,A41,$B$1,B41,$C$1,B41,$D$1,D41,$E$1,E41,$F$1,F41,$G$1,G41,$H$1,$I$1,I41,$J$1,J41,$K$1)</f>
-        <v>{"Requisite":{"id":40,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","description":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":40,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","description":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3918,11 +3925,11 @@
         <v>3.37</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE($A$1,A42,$B$1,B42,$C$1,B42,$D$1,D42,$E$1,E42,$F$1,F42,$G$1,G42,$H$1,$I$1,I42,$J$1,J42,$K$1)</f>
-        <v>{"Requisite":{"id":41,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de servicio conoce el detalle del contenido de la carta.","description":"El personal de servicio conoce el detalle del contenido de la carta.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":41,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de servicio conoce el detalle del contenido de la carta.","description":"El personal de servicio conoce el detalle del contenido de la carta.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3951,11 +3958,11 @@
         <v>3.38</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="str">
         <f>CONCATENATE($A$1,A43,$B$1,B43,$C$1,B43,$D$1,D43,$E$1,E43,$F$1,F43,$G$1,G43,$H$1,$I$1,I43,$J$1,J43,$K$1)</f>
-        <v>{"Requisite":{"id":42,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","description":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":42,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","description":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -3984,11 +3991,11 @@
         <v>3.39</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="str">
         <f>CONCATENATE($A$1,A44,$B$1,B44,$C$1,B44,$D$1,D44,$E$1,E44,$F$1,F44,$G$1,G44,$H$1,$I$1,I44,$J$1,J44,$K$1)</f>
-        <v>{"Requisite":{"id":43,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","description":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":1,"register_type_id":2},"attach":[]},
+        <v>{"Requisite":{"id":43,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","description":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":0,"register_type_id":2},"attach":[]},
 </v>
       </c>
     </row>
@@ -4817,8 +4824,8 @@
   <sheetPr/>
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4919,12 +4926,12 @@
       <c r="I3" s="28">
         <v>3.1</v>
       </c>
-      <c r="J3" s="21">
-        <v>1</v>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3" s="29" t="str">
         <f>CONCATENATE($A$1,A3,$B$1,B3,$C$1,B3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,$I$1,I3,$J$1,J3,$K$1)</f>
-        <v>{"Requisite":{"id":447,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":447,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -4950,12 +4957,12 @@
       <c r="I4" s="28">
         <v>3.2</v>
       </c>
-      <c r="J4" s="21">
-        <v>1</v>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4" s="29" t="str">
         <f>CONCATENATE($A$1,A4,$B$1,B4,$C$1,B4,$D$1,D4,$E$1,E4,$F$1,F4,$G$1,G4,$H$1,$I$1,I4,$J$1,J4,$K$1)</f>
-        <v>{"Requisite":{"id":448,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":448,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -4981,12 +4988,12 @@
       <c r="I5" s="28">
         <v>3.3</v>
       </c>
-      <c r="J5" s="21">
-        <v>1</v>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5" s="29" t="str">
         <f>CONCATENATE($A$1,A5,$B$1,B5,$C$1,B5,$D$1,D5,$E$1,E5,$F$1,F5,$G$1,G5,$H$1,$I$1,I5,$J$1,J5,$K$1)</f>
-        <v>{"Requisite":{"id":449,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","description":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":449,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","description":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5012,12 +5019,12 @@
       <c r="I6" s="28">
         <v>3.4</v>
       </c>
-      <c r="J6" s="21">
-        <v>1</v>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6" s="29" t="str">
         <f>CONCATENATE($A$1,A6,$B$1,B6,$C$1,B6,$D$1,D6,$E$1,E6,$F$1,F6,$G$1,G6,$H$1,$I$1,I6,$J$1,J6,$K$1)</f>
-        <v>{"Requisite":{"id":450,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":450,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5043,12 +5050,12 @@
       <c r="I7" s="28">
         <v>3.5</v>
       </c>
-      <c r="J7" s="21">
-        <v>1</v>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7" s="29" t="str">
         <f>CONCATENATE($A$1,A7,$B$1,B7,$C$1,B7,$D$1,D7,$E$1,E7,$F$1,F7,$G$1,G7,$H$1,$I$1,I7,$J$1,J7,$K$1)</f>
-        <v>{"Requisite":{"id":451,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":451,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5074,12 +5081,12 @@
       <c r="I8" s="28">
         <v>3.6</v>
       </c>
-      <c r="J8" s="21">
-        <v>1</v>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8" s="29" t="str">
         <f>CONCATENATE($A$1,A8,$B$1,B8,$C$1,B8,$D$1,D8,$E$1,E8,$F$1,F8,$G$1,G8,$H$1,$I$1,I8,$J$1,J8,$K$1)</f>
-        <v>{"Requisite":{"id":452,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":452,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5105,12 +5112,12 @@
       <c r="I9" s="28">
         <v>3.7</v>
       </c>
-      <c r="J9" s="21">
-        <v>1</v>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9" s="29" t="str">
         <f>CONCATENATE($A$1,A9,$B$1,B9,$C$1,B9,$D$1,D9,$E$1,E9,$F$1,F9,$G$1,G9,$H$1,$I$1,I9,$J$1,J9,$K$1)</f>
-        <v>{"Requisite":{"id":453,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,7","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":453,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,7","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5169,11 +5176,11 @@
         <v>93</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="27" t="str">
         <f>CONCATENATE($A$1,A11,$B$1,B11,$C$1,B11,$D$1,D11,$E$1,E11,$F$1,F11,$G$1,G11,$H$1,$I$1,I11,$J$1,J11,$K$1)</f>
-        <v>{"Requisite":{"id":455,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.1","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":455,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.1","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5200,11 +5207,11 @@
         <v>94</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="27" t="str">
         <f>CONCATENATE($A$1,A12,$B$1,B12,$C$1,B12,$D$1,D12,$E$1,E12,$F$1,F12,$G$1,G12,$H$1,$I$1,I12,$J$1,J12,$K$1)</f>
-        <v>{"Requisite":{"id":456,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.2","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":456,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.2","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5231,11 +5238,11 @@
         <v>95</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="27" t="str">
         <f>CONCATENATE($A$1,A13,$B$1,B13,$C$1,B13,$D$1,D13,$E$1,E13,$F$1,F13,$G$1,G13,$H$1,$I$1,I13,$J$1,J13,$K$1)</f>
-        <v>{"Requisite":{"id":457,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.3","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":457,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.3","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5262,11 +5269,11 @@
         <v>3.9</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="27" t="str">
         <f>CONCATENATE($A$1,A14,$B$1,B14,$C$1,B14,$D$1,D14,$E$1,E14,$F$1,F14,$G$1,G14,$H$1,$I$1,I14,$J$1,J14,$K$1)</f>
-        <v>{"Requisite":{"id":458,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con el suministro de agua permanente en el establecimiento.","description":"Contar con el suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":458,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con el suministro de agua permanente en el establecimiento.","description":"Contar con el suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5293,11 +5300,11 @@
         <v>3.1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="27" t="str">
         <f>CONCATENATE($A$1,A15,$B$1,B15,$C$1,B15,$D$1,D15,$E$1,E15,$F$1,F15,$G$1,G15,$H$1,$I$1,I15,$J$1,J15,$K$1)</f>
-        <v>{"Requisite":{"id":459,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":459,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5324,11 +5331,11 @@
         <v>3.11</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="27" t="str">
         <f>CONCATENATE($A$1,A16,$B$1,B16,$C$1,B16,$D$1,D16,$E$1,E16,$F$1,F16,$G$1,G16,$H$1,$I$1,I16,$J$1,J16,$K$1)</f>
-        <v>{"Requisite":{"id":460,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":460,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5355,11 +5362,11 @@
         <v>3.12</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="27" t="str">
         <f>CONCATENATE($A$1,A17,$B$1,B17,$C$1,B17,$D$1,D17,$E$1,E17,$F$1,F17,$G$1,G17,$H$1,$I$1,I17,$J$1,J17,$K$1)</f>
-        <v>{"Requisite":{"id":461,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":461,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5386,11 +5393,11 @@
         <v>3.13</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="27" t="str">
         <f>CONCATENATE($A$1,A18,$B$1,B18,$C$1,B18,$D$1,D18,$E$1,E18,$F$1,F18,$G$1,G18,$H$1,$I$1,I18,$J$1,J18,$K$1)</f>
-        <v>{"Requisite":{"id":462,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":462,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5417,11 +5424,11 @@
         <v>3.14</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="27" t="str">
         <f>CONCATENATE($A$1,A19,$B$1,B19,$C$1,B19,$D$1,D19,$E$1,E19,$F$1,F19,$G$1,G19,$H$1,$I$1,I19,$J$1,J19,$K$1)</f>
-        <v>{"Requisite":{"id":463,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación. ","description":"Contar con sumideros en áreas de preparación. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":463,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación. ","description":"Contar con sumideros en áreas de preparación. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5448,11 +5455,11 @@
         <v>3.15</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="27" t="str">
         <f>CONCATENATE($A$1,A20,$B$1,B20,$C$1,B20,$D$1,D20,$E$1,E20,$F$1,F20,$G$1,G20,$H$1,$I$1,I20,$J$1,J20,$K$1)</f>
-        <v>{"Requisite":{"id":464,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de energía eléctrica en el establecimiento.","description":"Contar con suministro de energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":464,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de energía eléctrica en el establecimiento.","description":"Contar con suministro de energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5479,11 +5486,11 @@
         <v>3.16</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="27" t="str">
         <f>CONCATENATE($A$1,A21,$B$1,B21,$C$1,B21,$D$1,D21,$E$1,E21,$F$1,F21,$G$1,G21,$H$1,$I$1,I21,$J$1,J21,$K$1)</f>
-        <v>{"Requisite":{"id":465,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":465,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5510,11 +5517,11 @@
         <v>3.17</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="27" t="str">
         <f>CONCATENATE($A$1,A22,$B$1,B22,$C$1,B22,$D$1,D22,$E$1,E22,$F$1,F22,$G$1,G22,$H$1,$I$1,I22,$J$1,J22,$K$1)</f>
-        <v>{"Requisite":{"id":466,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":466,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5541,11 +5548,11 @@
         <v>3.18</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="27" t="str">
         <f>CONCATENATE($A$1,A23,$B$1,B23,$C$1,B23,$D$1,D23,$E$1,E23,$F$1,F23,$G$1,G23,$H$1,$I$1,I23,$J$1,J23,$K$1)</f>
-        <v>{"Requisite":{"id":467,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":467,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5572,11 +5579,11 @@
         <v>3.19</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="27" t="str">
         <f>CONCATENATE($A$1,A24,$B$1,B24,$C$1,B24,$D$1,D24,$E$1,E24,$F$1,F24,$G$1,G24,$H$1,$I$1,I24,$J$1,J24,$K$1)</f>
-        <v>{"Requisite":{"id":468,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":468,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5603,11 +5610,11 @@
         <v>3.2</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="27" t="str">
         <f>CONCATENATE($A$1,A25,$B$1,B25,$C$1,B25,$D$1,D25,$E$1,E25,$F$1,F25,$G$1,G25,$H$1,$I$1,I25,$J$1,J25,$K$1)</f>
-        <v>{"Requisite":{"id":469,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje y licores, separada del área de preparación de alimentos y bebidas.","description":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje y licores, separada del área de preparación de alimentos y bebidas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":469,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje y licores, separada del área de preparación de alimentos y bebidas.","description":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje y licores, separada del área de preparación de alimentos y bebidas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5634,11 +5641,11 @@
         <v>3.21</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="27" t="str">
         <f>CONCATENATE($A$1,A26,$B$1,B26,$C$1,B26,$D$1,D26,$E$1,E26,$F$1,F26,$G$1,G26,$H$1,$I$1,I26,$J$1,J26,$K$1)</f>
-        <v>{"Requisite":{"id":470,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","description":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":470,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","description":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5665,11 +5672,11 @@
         <v>3.22</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="27" t="str">
         <f>CONCATENATE($A$1,A27,$B$1,B27,$C$1,B27,$D$1,D27,$E$1,E27,$F$1,F27,$G$1,G27,$H$1,$I$1,I27,$J$1,J27,$K$1)</f>
-        <v>{"Requisite":{"id":471,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":471,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5696,11 +5703,11 @@
         <v>3.23</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="27" t="str">
         <f>CONCATENATE($A$1,A28,$B$1,B28,$C$1,B28,$D$1,D28,$E$1,E28,$F$1,F28,$G$1,G28,$H$1,$I$1,I28,$J$1,J28,$K$1)</f>
-        <v>{"Requisite":{"id":472,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las áreas del establecimiento deben contar con sistemas de ventilación natural y/o forzada que permita el flujo de aire y la no acumulación de olores.","description":"Las áreas del establecimiento deben contar con sistemas de ventilación natural y/o forzada que permita el flujo de aire y la no acumulación de olores.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":472,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las áreas del establecimiento deben contar con sistemas de ventilación natural y/o forzada que permita el flujo de aire y la no acumulación de olores.","description":"Las áreas del establecimiento deben contar con sistemas de ventilación natural y/o forzada que permita el flujo de aire y la no acumulación de olores.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5727,11 +5734,11 @@
         <v>3.24</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="27" t="str">
         <f>CONCATENATE($A$1,A29,$B$1,B29,$C$1,B29,$D$1,D29,$E$1,E29,$F$1,F29,$G$1,G29,$H$1,$I$1,I29,$J$1,J29,$K$1)</f>
-        <v>{"Requisite":{"id":473,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":473,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5758,11 +5765,11 @@
         <v>3.25</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="27" t="str">
         <f>CONCATENATE($A$1,A30,$B$1,B30,$C$1,B30,$D$1,D30,$E$1,E30,$F$1,F30,$G$1,G30,$H$1,$I$1,I30,$J$1,J30,$K$1)</f>
-        <v>{"Requisite":{"id":474,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":474,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5789,11 +5796,11 @@
         <v>3.26</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="27" t="str">
         <f>CONCATENATE($A$1,A31,$B$1,B31,$C$1,B31,$D$1,D31,$E$1,E31,$F$1,F31,$G$1,G31,$H$1,$I$1,I31,$J$1,J31,$K$1)</f>
-        <v>{"Requisite":{"id":475,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":475,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5820,11 +5827,11 @@
         <v>3.27</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="27" t="str">
         <f>CONCATENATE($A$1,A32,$B$1,B32,$C$1,B32,$D$1,D32,$E$1,E32,$F$1,F32,$G$1,G32,$H$1,$I$1,I32,$J$1,J32,$K$1)</f>
-        <v>{"Requisite":{"id":476,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":476,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5851,11 +5858,11 @@
         <v>3.28</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="27" t="str">
         <f>CONCATENATE($A$1,A33,$B$1,B33,$C$1,B33,$D$1,D33,$E$1,E33,$F$1,F33,$G$1,G33,$H$1,$I$1,I33,$J$1,J33,$K$1)</f>
-        <v>{"Requisite":{"id":477,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":477,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5882,11 +5889,11 @@
         <v>3.29</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="27" t="str">
         <f>CONCATENATE($A$1,A34,$B$1,B34,$C$1,B34,$D$1,D34,$E$1,E34,$F$1,F34,$G$1,G34,$H$1,$I$1,I34,$J$1,J34,$K$1)</f>
-        <v>{"Requisite":{"id":478,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":478,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5913,11 +5920,11 @@
         <v>3.3</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="27" t="str">
         <f>CONCATENATE($A$1,A35,$B$1,B35,$C$1,B35,$D$1,D35,$E$1,E35,$F$1,F35,$G$1,G35,$H$1,$I$1,I35,$J$1,J35,$K$1)</f>
-        <v>{"Requisite":{"id":479,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un plan de contingencia aprobado por la Autoridad Nacional en Gestión de Riesgos o la unidad respectiva de cada Gobierno Autónomo Descentralizado competente.","description":"Contar con un plan de contingencia aprobado por la Autoridad Nacional en Gestión de Riesgos o la unidad respectiva de cada Gobierno Autónomo Descentralizado competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":479,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un plan de contingencia aprobado por la Autoridad Nacional en Gestión de Riesgos o la unidad respectiva de cada Gobierno Autónomo Descentralizado competente.","description":"Contar con un plan de contingencia aprobado por la Autoridad Nacional en Gestión de Riesgos o la unidad respectiva de cada Gobierno Autónomo Descentralizado competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5944,11 +5951,11 @@
         <v>3.31</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="27" t="str">
         <f>CONCATENATE($A$1,A36,$B$1,B36,$C$1,B36,$D$1,D36,$E$1,E36,$F$1,F36,$G$1,G36,$H$1,$I$1,I36,$J$1,J36,$K$1)</f>
-        <v>{"Requisite":{"id":480,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":480,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -5975,11 +5982,11 @@
         <v>3.32</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="27" t="str">
         <f>CONCATENATE($A$1,A37,$B$1,B37,$C$1,B37,$D$1,D37,$E$1,E37,$F$1,F37,$G$1,G37,$H$1,$I$1,I37,$J$1,J37,$K$1)</f>
-        <v>{"Requisite":{"id":481,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un área específica de bar / cafeteria.","description":"Contar con un área específica de bar / cafeteria.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":481,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un área específica de bar / cafeteria.","description":"Contar con un área específica de bar / cafeteria.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -6006,11 +6013,11 @@
         <v>3.33</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="27" t="str">
         <f>CONCATENATE($A$1,A38,$B$1,B38,$C$1,B38,$D$1,D38,$E$1,E38,$F$1,F38,$G$1,G38,$H$1,$I$1,I38,$J$1,J38,$K$1)</f>
-        <v>{"Requisite":{"id":482,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salidas de emergencia identificadas y habilitadas.","description":"Contar con salidas de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":482,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salidas de emergencia identificadas y habilitadas.","description":"Contar con salidas de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -6037,11 +6044,11 @@
         <v>3.34</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="27" t="str">
         <f>CONCATENATE($A$1,A39,$B$1,B39,$C$1,B39,$D$1,D39,$E$1,E39,$F$1,F39,$G$1,G39,$H$1,$I$1,I39,$J$1,J39,$K$1)</f>
-        <v>{"Requisite":{"id":483,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con cámaras de seguridad interconectadas con el ECU 911.","description":"Contar con cámaras de seguridad interconectadas con el ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":483,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con cámaras de seguridad interconectadas con el ECU 911.","description":"Contar con cámaras de seguridad interconectadas con el ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -6068,11 +6075,11 @@
         <v>3.35</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="27" t="str">
         <f>CONCATENATE($A$1,A40,$B$1,B40,$C$1,B40,$D$1,D40,$E$1,E40,$F$1,F40,$G$1,G40,$H$1,$I$1,I40,$J$1,J40,$K$1)</f>
-        <v>{"Requisite":{"id":484,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los pisos del área de producción deben ser de un material de fácil limpieza, antideslizantes y lavables (puede aplicar el uso de moquetas antideslizantes).","description":"Los pisos del área de producción deben ser de un material de fácil limpieza, antideslizantes y lavables (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":484,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los pisos del área de producción deben ser de un material de fácil limpieza, antideslizantes y lavables (puede aplicar el uso de moquetas antideslizantes).","description":"Los pisos del área de producción deben ser de un material de fácil limpieza, antideslizantes y lavables (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -6099,11 +6106,11 @@
         <v>3.36</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="27" t="str">
         <f>CONCATENATE($A$1,A41,$B$1,B41,$C$1,B41,$D$1,D41,$E$1,E41,$F$1,F41,$G$1,G41,$H$1,$I$1,I41,$J$1,J41,$K$1)</f>
-        <v>{"Requisite":{"id":485,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":485,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -6130,11 +6137,11 @@
         <v>3.37</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="27" t="str">
         <f>CONCATENATE($A$1,A42,$B$1,B42,$C$1,B42,$D$1,D42,$E$1,E42,$F$1,F42,$G$1,G42,$H$1,$I$1,I42,$J$1,J42,$K$1)</f>
-        <v>{"Requisite":{"id":486,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":486,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -6161,11 +6168,11 @@
         <v>3.38</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="27" t="str">
         <f>CONCATENATE($A$1,A43,$B$1,B43,$C$1,B43,$D$1,D43,$E$1,E43,$F$1,F43,$G$1,G43,$H$1,$I$1,I43,$J$1,J43,$K$1)</f>
-        <v>{"Requisite":{"id":487,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":487,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -6192,11 +6199,11 @@
         <v>3.39</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="27" t="str">
         <f>CONCATENATE($A$1,A44,$B$1,B44,$C$1,B44,$D$1,D44,$E$1,E44,$F$1,F44,$G$1,G44,$H$1,$I$1,I44,$J$1,J44,$K$1)</f>
-        <v>{"Requisite":{"id":488,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","description":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":488,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","description":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -6223,11 +6230,11 @@
         <v>3.4</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="27" t="str">
         <f>CONCATENATE($A$1,A45,$B$1,B45,$C$1,B45,$D$1,D45,$E$1,E45,$F$1,F45,$G$1,G45,$H$1,$I$1,I45,$J$1,J45,$K$1)</f>
-        <v>{"Requisite":{"id":489,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":37},"attach":[]},
+        <v>{"Requisite":{"id":489,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":37},"attach":[]},
 </v>
       </c>
     </row>
@@ -6963,8 +6970,8 @@
   <sheetPr/>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G46"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -7065,11 +7072,11 @@
         <v>3.1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE($A$1,A3,$B$1,B3,$C$1,B3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,$I$1,I3,$J$1,J3,$K$1)</f>
-        <v>{"Requisite":{"id":513,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":513,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7096,11 +7103,11 @@
         <v>3.2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE($A$1,A4,$B$1,B4,$C$1,B4,$D$1,D4,$E$1,E4,$F$1,F4,$G$1,G4,$H$1,$I$1,I4,$J$1,J4,$K$1)</f>
-        <v>{"Requisite":{"id":514,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":514,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7127,11 +7134,11 @@
         <v>3.3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
         <f>CONCATENATE($A$1,A5,$B$1,B5,$C$1,B5,$D$1,D5,$E$1,E5,$F$1,F5,$G$1,G5,$H$1,$I$1,I5,$J$1,J5,$K$1)</f>
-        <v>{"Requisite":{"id":515,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":515,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7158,11 +7165,11 @@
         <v>3.4</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="str">
         <f>CONCATENATE($A$1,A6,$B$1,B6,$C$1,B6,$D$1,D6,$E$1,E6,$F$1,F6,$G$1,G6,$H$1,$I$1,I6,$J$1,J6,$K$1)</f>
-        <v>{"Requisite":{"id":516,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":516,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7189,11 +7196,11 @@
         <v>3.5</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="str">
         <f>CONCATENATE($A$1,A7,$B$1,B7,$C$1,B7,$D$1,D7,$E$1,E7,$F$1,F7,$G$1,G7,$H$1,$I$1,I7,$J$1,J7,$K$1)</f>
-        <v>{"Requisite":{"id":517,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":517,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7220,11 +7227,11 @@
         <v>3.6</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE($A$1,A8,$B$1,B8,$C$1,B8,$D$1,D8,$E$1,E8,$F$1,F8,$G$1,G8,$H$1,$I$1,I8,$J$1,J8,$K$1)</f>
-        <v>{"Requisite":{"id":518,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":518,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7282,11 +7289,11 @@
         <v>26</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="str">
         <f>CONCATENATE($A$1,A10,$B$1,B10,$C$1,B10,$D$1,D10,$E$1,E10,$F$1,F10,$G$1,G10,$H$1,$I$1,I10,$J$1,J10,$K$1)</f>
-        <v>{"Requisite":{"id":520,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.1","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":520,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.1","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7313,11 +7320,11 @@
         <v>28</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE($A$1,A11,$B$1,B11,$C$1,B11,$D$1,D11,$E$1,E11,$F$1,F11,$G$1,G11,$H$1,$I$1,I11,$J$1,J11,$K$1)</f>
-        <v>{"Requisite":{"id":521,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.2","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":521,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.2","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7344,11 +7351,11 @@
         <v>30</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="str">
         <f>CONCATENATE($A$1,A12,$B$1,B12,$C$1,B12,$D$1,D12,$E$1,E12,$F$1,F12,$G$1,G12,$H$1,$I$1,I12,$J$1,J12,$K$1)</f>
-        <v>{"Requisite":{"id":522,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.3","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":522,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.3","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7375,11 +7382,11 @@
         <v>3.8</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="str">
         <f>CONCATENATE($A$1,A13,$B$1,B13,$C$1,B13,$D$1,D13,$E$1,E13,$F$1,F13,$G$1,G13,$H$1,$I$1,I13,$J$1,J13,$K$1)</f>
-        <v>{"Requisite":{"id":523,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,8","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":523,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,8","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7406,11 +7413,11 @@
         <v>3.9</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="str">
         <f>CONCATENATE($A$1,A14,$B$1,B14,$C$1,B14,$D$1,D14,$E$1,E14,$F$1,F14,$G$1,G14,$H$1,$I$1,I14,$J$1,J14,$K$1)</f>
-        <v>{"Requisite":{"id":524,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con alarma de incendios y/o detector de humo.","description":"Debe contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":524,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con alarma de incendios y/o detector de humo.","description":"Debe contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7437,11 +7444,11 @@
         <v>3.1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="str">
         <f>CONCATENATE($A$1,A15,$B$1,B15,$C$1,B15,$D$1,D15,$E$1,E15,$F$1,F15,$G$1,G15,$H$1,$I$1,I15,$J$1,J15,$K$1)</f>
-        <v>{"Requisite":{"id":525,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":525,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7468,11 +7475,11 @@
         <v>3.11</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE($A$1,A16,$B$1,B16,$C$1,B16,$D$1,D16,$E$1,E16,$F$1,F16,$G$1,G16,$H$1,$I$1,I16,$J$1,J16,$K$1)</f>
-        <v>{"Requisite":{"id":526,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":526,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7499,11 +7506,11 @@
         <v>3.12</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="str">
         <f>CONCATENATE($A$1,A17,$B$1,B17,$C$1,B17,$D$1,D17,$E$1,E17,$F$1,F17,$G$1,G17,$H$1,$I$1,I17,$J$1,J17,$K$1)</f>
-        <v>{"Requisite":{"id":527,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":527,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7530,11 +7537,11 @@
         <v>3.13</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="str">
         <f>CONCATENATE($A$1,A18,$B$1,B18,$C$1,B18,$D$1,D18,$E$1,E18,$F$1,F18,$G$1,G18,$H$1,$I$1,I18,$J$1,J18,$K$1)</f>
-        <v>{"Requisite":{"id":528,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con sumideros en áreas de preparación de alimentos.","description":"Debe contar con sumideros en áreas de preparación de alimentos.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":528,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con sumideros en áreas de preparación de alimentos.","description":"Debe contar con sumideros en áreas de preparación de alimentos.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7561,11 +7568,11 @@
         <v>3.14</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE($A$1,A19,$B$1,B19,$C$1,B19,$D$1,D19,$E$1,E19,$F$1,F19,$G$1,G19,$H$1,$I$1,I19,$J$1,J19,$K$1)</f>
-        <v>{"Requisite":{"id":529,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con un equipo que garantice la extracción de humos y olores de la zona de cocción.","description":"Debe contar con un equipo que garantice la extracción de humos y olores de la zona de cocción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":529,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con un equipo que garantice la extracción de humos y olores de la zona de cocción.","description":"Debe contar con un equipo que garantice la extracción de humos y olores de la zona de cocción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7592,11 +7599,11 @@
         <v>3.15</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="str">
         <f>CONCATENATE($A$1,A20,$B$1,B20,$C$1,B20,$D$1,D20,$E$1,E20,$F$1,F20,$G$1,G20,$H$1,$I$1,I20,$J$1,J20,$K$1)</f>
-        <v>{"Requisite":{"id":530,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente. ","description":"Debe contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":530,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente. ","description":"Debe contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7623,11 +7630,11 @@
         <v>3.16</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="str">
         <f>CONCATENATE($A$1,A21,$B$1,B21,$C$1,B21,$D$1,D21,$E$1,E21,$F$1,F21,$G$1,G21,$H$1,$I$1,I21,$J$1,J21,$K$1)</f>
-        <v>{"Requisite":{"id":531,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Nota: se exceptúa para los establecimientos que compartan baños","description":"Nota: se exceptúa para los establecimientos que compartan baños","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":531,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Nota: se exceptúa para los establecimientos que compartan baños","description":"Nota: se exceptúa para los establecimientos que compartan baños","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7654,11 +7661,11 @@
         <v>3.17</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="str">
         <f>CONCATENATE($A$1,A22,$B$1,B22,$C$1,B22,$D$1,D22,$E$1,E22,$F$1,F22,$G$1,G22,$H$1,$I$1,I22,$J$1,J22,$K$1)</f>
-        <v>{"Requisite":{"id":532,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":532,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7685,11 +7692,11 @@
         <v>3.18</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="str">
         <f>CONCATENATE($A$1,A23,$B$1,B23,$C$1,B23,$D$1,D23,$E$1,E23,$F$1,F23,$G$1,G23,$H$1,$I$1,I23,$J$1,J23,$K$1)</f>
-        <v>{"Requisite":{"id":533,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":533,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7716,11 +7723,11 @@
         <v>3.19</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="str">
         <f>CONCATENATE($A$1,A24,$B$1,B24,$C$1,B24,$D$1,D24,$E$1,E24,$F$1,F24,$G$1,G24,$H$1,$I$1,I24,$J$1,J24,$K$1)</f>
-        <v>{"Requisite":{"id":534,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":534,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7747,11 +7754,11 @@
         <v>3.2</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="str">
         <f>CONCATENATE($A$1,A25,$B$1,B25,$C$1,B25,$D$1,D25,$E$1,E25,$F$1,F25,$G$1,G25,$H$1,$I$1,I25,$J$1,J25,$K$1)</f>
-        <v>{"Requisite":{"id":535,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal del establecimiento debe usar protector para el cabello.","description":"El personal del establecimiento debe usar protector para el cabello.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":535,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal del establecimiento debe usar protector para el cabello.","description":"El personal del establecimiento debe usar protector para el cabello.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7778,11 +7785,11 @@
         <v>3.21</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="str">
         <f>CONCATENATE($A$1,A26,$B$1,B26,$C$1,B26,$D$1,D26,$E$1,E26,$F$1,F26,$G$1,G26,$H$1,$I$1,I26,$J$1,J26,$K$1)</f>
-        <v>{"Requisite":{"id":536,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":536,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7809,11 +7816,11 @@
         <v>3.22</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="str">
         <f>CONCATENATE($A$1,A27,$B$1,B27,$C$1,B27,$D$1,D27,$E$1,E27,$F$1,F27,$G$1,G27,$H$1,$I$1,I27,$J$1,J27,$K$1)</f>
-        <v>{"Requisite":{"id":537,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":537,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7840,11 +7847,11 @@
         <v>3.23</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="str">
         <f>CONCATENATE($A$1,A28,$B$1,B28,$C$1,B28,$D$1,D28,$E$1,E28,$F$1,F28,$G$1,G28,$H$1,$I$1,I28,$J$1,J28,$K$1)</f>
-        <v>{"Requisite":{"id":538,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":538,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7871,11 +7878,11 @@
         <v>3.24</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="str">
         <f>CONCATENATE($A$1,A29,$B$1,B29,$C$1,B29,$D$1,D29,$E$1,E29,$F$1,F29,$G$1,G29,$H$1,$I$1,I29,$J$1,J29,$K$1)</f>
-        <v>{"Requisite":{"id":539,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","description":"Debe contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":539,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","description":"Debe contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7902,11 +7909,11 @@
         <v>3.25</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="str">
         <f>CONCATENATE($A$1,A30,$B$1,B30,$C$1,B30,$D$1,D30,$E$1,E30,$F$1,F30,$G$1,G30,$H$1,$I$1,I30,$J$1,J30,$K$1)</f>
-        <v>{"Requisite":{"id":540,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","description":"Debe contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":540,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","description":"Debe contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7933,11 +7940,11 @@
         <v>3.26</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="str">
         <f>CONCATENATE($A$1,A31,$B$1,B31,$C$1,B31,$D$1,D31,$E$1,E31,$F$1,F31,$G$1,G31,$H$1,$I$1,I31,$J$1,J31,$K$1)</f>
-        <v>{"Requisite":{"id":541,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":541,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7964,11 +7971,11 @@
         <v>3.27</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="str">
         <f>CONCATENATE($A$1,A32,$B$1,B32,$C$1,B32,$D$1,D32,$E$1,E32,$F$1,F32,$G$1,G32,$H$1,$I$1,I32,$J$1,J32,$K$1)</f>
-        <v>{"Requisite":{"id":542,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Debe contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":542,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Debe contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -7995,11 +8002,11 @@
         <v>3.28</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="str">
         <f>CONCATENATE($A$1,A33,$B$1,B33,$C$1,B33,$D$1,D33,$E$1,E33,$F$1,F33,$G$1,G33,$H$1,$I$1,I33,$J$1,J33,$K$1)</f>
-        <v>{"Requisite":{"id":543,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias, y protegidas contra ingreso de roedores, animales y personas ajenas al servicio.","description":"Todas las áreas de almacenamiento deben mantenerse limpias, y protegidas contra ingreso de roedores, animales y personas ajenas al servicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":543,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias, y protegidas contra ingreso de roedores, animales y personas ajenas al servicio.","description":"Todas las áreas de almacenamiento deben mantenerse limpias, y protegidas contra ingreso de roedores, animales y personas ajenas al servicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -8026,11 +8033,11 @@
         <v>3.29</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="str">
         <f>CONCATENATE($A$1,A34,$B$1,B34,$C$1,B34,$D$1,D34,$E$1,E34,$F$1,F34,$G$1,G34,$H$1,$I$1,I34,$J$1,J34,$K$1)</f>
-        <v>{"Requisite":{"id":544,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Deben contar con trampa de grasa en el área de producción y área de lavado de vajilla.","description":"Deben contar con trampa de grasa en el área de producción y área de lavado de vajilla.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":544,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Deben contar con trampa de grasa en el área de producción y área de lavado de vajilla.","description":"Deben contar con trampa de grasa en el área de producción y área de lavado de vajilla.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -8057,11 +8064,11 @@
         <v>3.3</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="str">
         <f>CONCATENATE($A$1,A35,$B$1,B35,$C$1,B35,$D$1,D35,$E$1,E35,$F$1,F35,$G$1,G35,$H$1,$I$1,I35,$J$1,J35,$K$1)</f>
-        <v>{"Requisite":{"id":545,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":545,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -8088,11 +8095,11 @@
         <v>3.31</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="str">
         <f>CONCATENATE($A$1,A36,$B$1,B36,$C$1,B36,$D$1,D36,$E$1,E36,$F$1,F36,$G$1,G36,$H$1,$I$1,I36,$J$1,J36,$K$1)</f>
-        <v>{"Requisite":{"id":546,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con un informativo del correcto lavado de manos en el área de producción.","description":"Debe contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":546,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con un informativo del correcto lavado de manos en el área de producción.","description":"Debe contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -8119,11 +8126,11 @@
         <v>3.32</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="str">
         <f>CONCATENATE($A$1,A37,$B$1,B37,$C$1,B37,$D$1,D37,$E$1,E37,$F$1,F37,$G$1,G37,$H$1,$I$1,I37,$J$1,J37,$K$1)</f>
-        <v>{"Requisite":{"id":547,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Debe exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":547,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Debe exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -8150,11 +8157,11 @@
         <v>3.33</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="str">
         <f>CONCATENATE($A$1,A38,$B$1,B38,$C$1,B38,$D$1,D38,$E$1,E38,$F$1,F38,$G$1,G38,$H$1,$I$1,I38,$J$1,J38,$K$1)</f>
-        <v>{"Requisite":{"id":548,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo en áreas de producción deben aislarse con protectores en caso de rotura.","description":"Focos y lámparas de techo en áreas de producción deben aislarse con protectores en caso de rotura.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":548,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo en áreas de producción deben aislarse con protectores en caso de rotura.","description":"Focos y lámparas de techo en áreas de producción deben aislarse con protectores en caso de rotura.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -8181,11 +8188,11 @@
         <v>3.34</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="str">
         <f>CONCATENATE($A$1,A39,$B$1,B39,$C$1,B39,$D$1,D39,$E$1,E39,$F$1,F39,$G$1,G39,$H$1,$I$1,I39,$J$1,J39,$K$1)</f>
-        <v>{"Requisite":{"id":549,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":549,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -8212,11 +8219,11 @@
         <v>3.35</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="str">
         <f>CONCATENATE($A$1,A40,$B$1,B40,$C$1,B40,$D$1,D40,$E$1,E40,$F$1,F40,$G$1,G40,$H$1,$I$1,I40,$J$1,J40,$K$1)</f>
-        <v>{"Requisite":{"id":550,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salida(s) de emergencia identificadas y habilitadas.","description":"Contar con salida(s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":550,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salida(s) de emergencia identificadas y habilitadas.","description":"Contar con salida(s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -8243,11 +8250,11 @@
         <v>3.36</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="str">
         <f>CONCATENATE($A$1,A41,$B$1,B41,$C$1,B41,$D$1,D41,$E$1,E41,$F$1,F41,$G$1,G41,$H$1,$I$1,I41,$J$1,J41,$K$1)</f>
-        <v>{"Requisite":{"id":551,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con suministro continuo de energía eléctrica.","description":"Debe contar con suministro continuo de energía eléctrica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":551,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con suministro continuo de energía eléctrica.","description":"Debe contar con suministro continuo de energía eléctrica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -8274,11 +8281,11 @@
         <v>3.37</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE($A$1,A42,$B$1,B42,$C$1,B42,$D$1,D42,$E$1,E42,$F$1,F42,$G$1,G42,$H$1,$I$1,I42,$J$1,J42,$K$1)</f>
-        <v>{"Requisite":{"id":552,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","description":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":552,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","description":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -8305,11 +8312,11 @@
         <v>3.38</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="str">
         <f>CONCATENATE($A$1,A43,$B$1,B43,$C$1,B43,$D$1,D43,$E$1,E43,$F$1,F43,$G$1,G43,$H$1,$I$1,I43,$J$1,J43,$K$1)</f>
-        <v>{"Requisite":{"id":553,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de servicio conoce el detalle del contenido de la carta.","description":"El personal de servicio conoce el detalle del contenido de la carta.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":553,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de servicio conoce el detalle del contenido de la carta.","description":"El personal de servicio conoce el detalle del contenido de la carta.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -8336,11 +8343,11 @@
         <v>3.39</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="str">
         <f>CONCATENATE($A$1,A44,$B$1,B44,$C$1,B44,$D$1,D44,$E$1,E44,$F$1,F44,$G$1,G44,$H$1,$I$1,I44,$J$1,J44,$K$1)</f>
-        <v>{"Requisite":{"id":554,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","description":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":554,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","description":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -8367,11 +8374,11 @@
         <v>3.4</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="str">
         <f>CONCATENATE($A$1,A45,$B$1,B45,$C$1,B45,$D$1,D45,$E$1,E45,$F$1,F45,$G$1,G45,$H$1,$I$1,I45,$J$1,J45,$K$1)</f>
-        <v>{"Requisite":{"id":555,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","description":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":555,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","description":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -8398,11 +8405,11 @@
         <v>3.41</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="str">
         <f>CONCATENATE($A$1,A46,$B$1,B46,$C$1,B46,$D$1,D46,$E$1,E46,$F$1,F46,$G$1,G46,$H$1,$I$1,I46,$J$1,J46,$K$1)</f>
-        <v>{"Requisite":{"id":556,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,41","score":1,"register_type_id":42},"attach":[]},
+        <v>{"Requisite":{"id":556,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,41","score":0,"register_type_id":42},"attach":[]},
 </v>
       </c>
     </row>
@@ -9770,15 +9777,16 @@
   <sheetPr/>
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G46"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.5166666666667"/>
     <col min="2" max="2" width="46.1083333333333" customWidth="1"/>
-    <col min="3" max="8" width="11.5166666666667"/>
+    <col min="3" max="3" width="4.625" customWidth="1"/>
+    <col min="4" max="8" width="11.5166666666667"/>
     <col min="9" max="9" width="11.5166666666667" style="9"/>
     <col min="10" max="1025" width="11.5166666666667"/>
   </cols>
@@ -9873,11 +9881,11 @@
         <v>3.1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE($A$1,A3,$B$1,B3,$C$1,B3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,$I$1,I3,$J$1,J3,$K$1)</f>
-        <v>{"Requisite":{"id":601,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":601,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -9904,11 +9912,11 @@
         <v>3.2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE($A$1,A4,$B$1,B4,$C$1,B4,$D$1,D4,$E$1,E4,$F$1,F4,$G$1,G4,$H$1,$I$1,I4,$J$1,J4,$K$1)</f>
-        <v>{"Requisite":{"id":602,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":602,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -9935,11 +9943,11 @@
         <v>3.3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
         <f>CONCATENATE($A$1,A5,$B$1,B5,$C$1,B5,$D$1,D5,$E$1,E5,$F$1,F5,$G$1,G5,$H$1,$I$1,I5,$J$1,J5,$K$1)</f>
-        <v>{"Requisite":{"id":603,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","description":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":603,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","description":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -9966,11 +9974,11 @@
         <v>3.4</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="str">
         <f>CONCATENATE($A$1,A6,$B$1,B6,$C$1,B6,$D$1,D6,$E$1,E6,$F$1,F6,$G$1,G6,$H$1,$I$1,I6,$J$1,J6,$K$1)</f>
-        <v>{"Requisite":{"id":604,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":604,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -9997,11 +10005,11 @@
         <v>3.5</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="str">
         <f>CONCATENATE($A$1,A7,$B$1,B7,$C$1,B7,$D$1,D7,$E$1,E7,$F$1,F7,$G$1,G7,$H$1,$I$1,I7,$J$1,J7,$K$1)</f>
-        <v>{"Requisite":{"id":605,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":605,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10028,11 +10036,11 @@
         <v>3.6</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE($A$1,A8,$B$1,B8,$C$1,B8,$D$1,D8,$E$1,E8,$F$1,F8,$G$1,G8,$H$1,$I$1,I8,$J$1,J8,$K$1)</f>
-        <v>{"Requisite":{"id":606,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":606,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10059,11 +10067,11 @@
         <v>3.7</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="str">
         <f>CONCATENATE($A$1,A9,$B$1,B9,$C$1,B9,$D$1,D9,$E$1,E9,$F$1,F9,$G$1,G9,$H$1,$I$1,I9,$J$1,J9,$K$1)</f>
-        <v>{"Requisite":{"id":607,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,7","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":607,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,7","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10122,11 +10130,11 @@
         <v>93</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE($A$1,A11,$B$1,B11,$C$1,B11,$D$1,D11,$E$1,E11,$F$1,F11,$G$1,G11,$H$1,$I$1,I11,$J$1,J11,$K$1)</f>
-        <v>{"Requisite":{"id":609,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.1","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":609,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.1","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10153,11 +10161,11 @@
         <v>94</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="str">
         <f>CONCATENATE($A$1,A12,$B$1,B12,$C$1,B12,$D$1,D12,$E$1,E12,$F$1,F12,$G$1,G12,$H$1,$I$1,I12,$J$1,J12,$K$1)</f>
-        <v>{"Requisite":{"id":610,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.2","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":610,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.2","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10184,11 +10192,11 @@
         <v>95</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="str">
         <f>CONCATENATE($A$1,A13,$B$1,B13,$C$1,B13,$D$1,D13,$E$1,E13,$F$1,F13,$G$1,G13,$H$1,$I$1,I13,$J$1,J13,$K$1)</f>
-        <v>{"Requisite":{"id":611,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.3","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":611,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.3","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10215,11 +10223,11 @@
         <v>3.9</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="str">
         <f>CONCATENATE($A$1,A14,$B$1,B14,$C$1,B14,$D$1,D14,$E$1,E14,$F$1,F14,$G$1,G14,$H$1,$I$1,I14,$J$1,J14,$K$1)</f>
-        <v>{"Requisite":{"id":612,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":612,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10243,11 +10251,11 @@
         <v>17</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="str">
         <f>CONCATENATE($A$1,A15,$B$1,B15,$C$1,B15,$D$1,D15,$E$1,E15,$F$1,F15,$G$1,G15,$H$1,$I$1,I15,$J$1,J15,$K$1)</f>
-        <v>{"Requisite":{"id":613,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":613,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10274,11 +10282,11 @@
         <v>3.1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE($A$1,A16,$B$1,B16,$C$1,B16,$D$1,D16,$E$1,E16,$F$1,F16,$G$1,G16,$H$1,$I$1,I16,$J$1,J16,$K$1)</f>
-        <v>{"Requisite":{"id":614,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":614,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10305,11 +10313,11 @@
         <v>3.11</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="str">
         <f>CONCATENATE($A$1,A17,$B$1,B17,$C$1,B17,$D$1,D17,$E$1,E17,$F$1,F17,$G$1,G17,$H$1,$I$1,I17,$J$1,J17,$K$1)</f>
-        <v>{"Requisite":{"id":615,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":615,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10336,11 +10344,11 @@
         <v>3.12</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="str">
         <f>CONCATENATE($A$1,A18,$B$1,B18,$C$1,B18,$D$1,D18,$E$1,E18,$F$1,F18,$G$1,G18,$H$1,$I$1,I18,$J$1,J18,$K$1)</f>
-        <v>{"Requisite":{"id":616,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":616,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10367,11 +10375,11 @@
         <v>3.13</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE($A$1,A19,$B$1,B19,$C$1,B19,$D$1,D19,$E$1,E19,$F$1,F19,$G$1,G19,$H$1,$I$1,I19,$J$1,J19,$K$1)</f>
-        <v>{"Requisite":{"id":617,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación. ","description":"Contar con sumideros en áreas de preparación. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":617,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación. ","description":"Contar con sumideros en áreas de preparación. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10398,11 +10406,11 @@
         <v>3.14</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="str">
         <f>CONCATENATE($A$1,A20,$B$1,B20,$C$1,B20,$D$1,D20,$E$1,E20,$F$1,F20,$G$1,G20,$H$1,$I$1,I20,$J$1,J20,$K$1)</f>
-        <v>{"Requisite":{"id":618,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Áreas del establecimiento cuentan con sistemas de ventilación forzada que permita el flujo de aire y la no acumulación de olores.","description":"Áreas del establecimiento cuentan con sistemas de ventilación forzada que permita el flujo de aire y la no acumulación de olores.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":618,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Áreas del establecimiento cuentan con sistemas de ventilación forzada que permita el flujo de aire y la no acumulación de olores.","description":"Áreas del establecimiento cuentan con sistemas de ventilación forzada que permita el flujo de aire y la no acumulación de olores.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10429,11 +10437,11 @@
         <v>3.15</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="str">
         <f>CONCATENATE($A$1,A21,$B$1,B21,$C$1,B21,$D$1,D21,$E$1,E21,$F$1,F21,$G$1,G21,$H$1,$I$1,I21,$J$1,J21,$K$1)</f>
-        <v>{"Requisite":{"id":619,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de energía eléctrica en el establecimiento.","description":"Contar con suministro de energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":619,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de energía eléctrica en el establecimiento.","description":"Contar con suministro de energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10460,11 +10468,11 @@
         <v>3.16</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="str">
         <f>CONCATENATE($A$1,A22,$B$1,B22,$C$1,B22,$D$1,D22,$E$1,E22,$F$1,F22,$G$1,G22,$H$1,$I$1,I22,$J$1,J22,$K$1)</f>
-        <v>{"Requisite":{"id":620,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":620,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10491,11 +10499,11 @@
         <v>3.17</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="str">
         <f>CONCATENATE($A$1,A23,$B$1,B23,$C$1,B23,$D$1,D23,$E$1,E23,$F$1,F23,$G$1,G23,$H$1,$I$1,I23,$J$1,J23,$K$1)</f>
-        <v>{"Requisite":{"id":621,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":621,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10522,11 +10530,11 @@
         <v>3.18</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="str">
         <f>CONCATENATE($A$1,A24,$B$1,B24,$C$1,B24,$D$1,D24,$E$1,E24,$F$1,F24,$G$1,G24,$H$1,$I$1,I24,$J$1,J24,$K$1)</f>
-        <v>{"Requisite":{"id":622,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":622,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10553,11 +10561,11 @@
         <v>3.19</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="str">
         <f>CONCATENATE($A$1,A25,$B$1,B25,$C$1,B25,$D$1,D25,$E$1,E25,$F$1,F25,$G$1,G25,$H$1,$I$1,I25,$J$1,J25,$K$1)</f>
-        <v>{"Requisite":{"id":623,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":623,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10584,11 +10592,11 @@
         <v>3.2</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="str">
         <f>CONCATENATE($A$1,A26,$B$1,B26,$C$1,B26,$D$1,D26,$E$1,E26,$F$1,F26,$G$1,G26,$H$1,$I$1,I26,$J$1,J26,$K$1)</f>
-        <v>{"Requisite":{"id":624,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje, licores, separada del área de preparación de bebidas.","description":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje, licores, separada del área de preparación de bebidas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":624,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje, licores, separada del área de preparación de bebidas.","description":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje, licores, separada del área de preparación de bebidas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10615,11 +10623,11 @@
         <v>3.21</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="str">
         <f>CONCATENATE($A$1,A27,$B$1,B27,$C$1,B27,$D$1,D27,$E$1,E27,$F$1,F27,$G$1,G27,$H$1,$I$1,I27,$J$1,J27,$K$1)</f>
-        <v>{"Requisite":{"id":625,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":625,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10646,11 +10654,11 @@
         <v>3.22</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="str">
         <f>CONCATENATE($A$1,A28,$B$1,B28,$C$1,B28,$D$1,D28,$E$1,E28,$F$1,F28,$G$1,G28,$H$1,$I$1,I28,$J$1,J28,$K$1)</f>
-        <v>{"Requisite":{"id":626,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":626,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10677,11 +10685,11 @@
         <v>3.23</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="str">
         <f>CONCATENATE($A$1,A29,$B$1,B29,$C$1,B29,$D$1,D29,$E$1,E29,$F$1,F29,$G$1,G29,$H$1,$I$1,I29,$J$1,J29,$K$1)</f>
-        <v>{"Requisite":{"id":627,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":627,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10708,11 +10716,11 @@
         <v>3.24</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="str">
         <f>CONCATENATE($A$1,A30,$B$1,B30,$C$1,B30,$D$1,D30,$E$1,E30,$F$1,F30,$G$1,G30,$H$1,$I$1,I30,$J$1,J30,$K$1)</f>
-        <v>{"Requisite":{"id":628,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":628,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10739,11 +10747,11 @@
         <v>3.25</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="str">
         <f>CONCATENATE($A$1,A31,$B$1,B31,$C$1,B31,$D$1,D31,$E$1,E31,$F$1,F31,$G$1,G31,$H$1,$I$1,I31,$J$1,J31,$K$1)</f>
-        <v>{"Requisite":{"id":629,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":629,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10770,11 +10778,11 @@
         <v>3.26</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="str">
         <f>CONCATENATE($A$1,A32,$B$1,B32,$C$1,B32,$D$1,D32,$E$1,E32,$F$1,F32,$G$1,G32,$H$1,$I$1,I32,$J$1,J32,$K$1)</f>
-        <v>{"Requisite":{"id":630,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":630,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10801,11 +10809,11 @@
         <v>3.27</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="str">
         <f>CONCATENATE($A$1,A33,$B$1,B33,$C$1,B33,$D$1,D33,$E$1,E33,$F$1,F33,$G$1,G33,$H$1,$I$1,I33,$J$1,J33,$K$1)</f>
-        <v>{"Requisite":{"id":631,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":631,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10832,11 +10840,11 @@
         <v>3.28</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="str">
         <f>CONCATENATE($A$1,A34,$B$1,B34,$C$1,B34,$D$1,D34,$E$1,E34,$F$1,F34,$G$1,G34,$H$1,$I$1,I34,$J$1,J34,$K$1)</f>
-        <v>{"Requisite":{"id":632,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un Plan de Contingencia aprobado por Secretaria de Gestión de Riesgos o la Unidad respectiva de cada GAD.","description":"Contar con un Plan de Contingencia aprobado por Secretaria de Gestión de Riesgos o la Unidad respectiva de cada GAD.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":632,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un Plan de Contingencia aprobado por Secretaria de Gestión de Riesgos o la Unidad respectiva de cada GAD.","description":"Contar con un Plan de Contingencia aprobado por Secretaria de Gestión de Riesgos o la Unidad respectiva de cada GAD.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10863,11 +10871,11 @@
         <v>3.29</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="str">
         <f>CONCATENATE($A$1,A35,$B$1,B35,$C$1,B35,$D$1,D35,$E$1,E35,$F$1,F35,$G$1,G35,$H$1,$I$1,I35,$J$1,J35,$K$1)</f>
-        <v>{"Requisite":{"id":633,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El establecimiento debe contar  con aislamiento acústico que garantice la insonorización a los estándares permitidos.","description":"El establecimiento debe contar  con aislamiento acústico que garantice la insonorización a los estándares permitidos.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":633,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El establecimiento debe contar  con aislamiento acústico que garantice la insonorización a los estándares permitidos.","description":"El establecimiento debe contar  con aislamiento acústico que garantice la insonorización a los estándares permitidos.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10894,11 +10902,11 @@
         <v>3.3</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="str">
         <f>CONCATENATE($A$1,A36,$B$1,B36,$C$1,B36,$D$1,D36,$E$1,E36,$F$1,F36,$G$1,G36,$H$1,$I$1,I36,$J$1,J36,$K$1)</f>
-        <v>{"Requisite":{"id":634,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con salida (s) de emergencia identificadas y habilitadas.","description":"Debe contar con salida (s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":634,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con salida (s) de emergencia identificadas y habilitadas.","description":"Debe contar con salida (s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10925,11 +10933,11 @@
         <v>3.31</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="str">
         <f>CONCATENATE($A$1,A37,$B$1,B37,$C$1,B37,$D$1,D37,$E$1,E37,$F$1,F37,$G$1,G37,$H$1,$I$1,I37,$J$1,J37,$K$1)</f>
-        <v>{"Requisite":{"id":635,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con instalaciones eléctricas aisladas, protegidas y fijas según las disposiciones de la autoridad competente.","description":"Contar con instalaciones eléctricas aisladas, protegidas y fijas según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":635,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con instalaciones eléctricas aisladas, protegidas y fijas según las disposiciones de la autoridad competente.","description":"Contar con instalaciones eléctricas aisladas, protegidas y fijas según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10956,11 +10964,11 @@
         <v>3.32</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="str">
         <f>CONCATENATE($A$1,A38,$B$1,B38,$C$1,B38,$D$1,D38,$E$1,E38,$F$1,F38,$G$1,G38,$H$1,$I$1,I38,$J$1,J38,$K$1)</f>
-        <v>{"Requisite":{"id":636,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar  con un área específica de bar.","description":"Contar  con un área específica de bar.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":636,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar  con un área específica de bar.","description":"Contar  con un área específica de bar.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -10987,11 +10995,11 @@
         <v>3.33</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="str">
         <f>CONCATENATE($A$1,A39,$B$1,B39,$C$1,B39,$D$1,D39,$E$1,E39,$F$1,F39,$G$1,G39,$H$1,$I$1,I39,$J$1,J39,$K$1)</f>
-        <v>{"Requisite":{"id":637,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pista de baile.","description":"Contar con pista de baile.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":637,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pista de baile.","description":"Contar con pista de baile.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -11018,11 +11026,11 @@
         <v>3.34</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="str">
         <f>CONCATENATE($A$1,A40,$B$1,B40,$C$1,B40,$D$1,D40,$E$1,E40,$F$1,F40,$G$1,G40,$H$1,$I$1,I40,$J$1,J40,$K$1)</f>
-        <v>{"Requisite":{"id":638,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un plan de limpieza.","description":"Contar con un plan de limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":638,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un plan de limpieza.","description":"Contar con un plan de limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -11049,11 +11057,11 @@
         <v>3.35</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="str">
         <f>CONCATENATE($A$1,A41,$B$1,B41,$C$1,B41,$D$1,D41,$E$1,E41,$F$1,F41,$G$1,G41,$H$1,$I$1,I41,$J$1,J41,$K$1)</f>
-        <v>{"Requisite":{"id":639,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con cámaras de seguridad interconectadas con el ECU 911.","description":"Contar con cámaras de seguridad interconectadas con el ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":639,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con cámaras de seguridad interconectadas con el ECU 911.","description":"Contar con cámaras de seguridad interconectadas con el ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -11080,11 +11088,11 @@
         <v>3.36</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE($A$1,A42,$B$1,B42,$C$1,B42,$D$1,D42,$E$1,E42,$F$1,F42,$G$1,G42,$H$1,$I$1,I42,$J$1,J42,$K$1)</f>
-        <v>{"Requisite":{"id":640,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","description":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":640,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","description":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -11111,11 +11119,11 @@
         <v>3.37</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="str">
         <f>CONCATENATE($A$1,A43,$B$1,B43,$C$1,B43,$D$1,D43,$E$1,E43,$F$1,F43,$G$1,G43,$H$1,$I$1,I43,$J$1,J43,$K$1)</f>
-        <v>{"Requisite":{"id":641,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La oferta de bebidas deberá presentarse mediante menú  a sus consumidores, con sus respectivos precios incluido impuestos, misma que deberá detallarse.","description":"La oferta de bebidas deberá presentarse mediante menú  a sus consumidores, con sus respectivos precios incluido impuestos, misma que deberá detallarse.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":641,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La oferta de bebidas deberá presentarse mediante menú  a sus consumidores, con sus respectivos precios incluido impuestos, misma que deberá detallarse.","description":"La oferta de bebidas deberá presentarse mediante menú  a sus consumidores, con sus respectivos precios incluido impuestos, misma que deberá detallarse.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -11142,11 +11150,11 @@
         <v>3.38</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="str">
         <f>CONCATENATE($A$1,A44,$B$1,B44,$C$1,B44,$D$1,D44,$E$1,E44,$F$1,F44,$G$1,G44,$H$1,$I$1,I44,$J$1,J44,$K$1)</f>
-        <v>{"Requisite":{"id":642,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias","description":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":642,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias","description":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -11173,11 +11181,11 @@
         <v>3.39</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="str">
         <f>CONCATENATE($A$1,A45,$B$1,B45,$C$1,B45,$D$1,D45,$E$1,E45,$F$1,F45,$G$1,G45,$H$1,$I$1,I45,$J$1,J45,$K$1)</f>
-        <v>{"Requisite":{"id":643,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":643,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -11204,11 +11212,11 @@
         <v>3.4</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="str">
         <f>CONCATENATE($A$1,A46,$B$1,B46,$C$1,B46,$D$1,D46,$E$1,E46,$F$1,F46,$G$1,G46,$H$1,$I$1,I46,$J$1,J46,$K$1)</f>
-        <v>{"Requisite":{"id":644,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":49},"attach":[]},
+        <v>{"Requisite":{"id":644,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":49},"attach":[]},
 </v>
       </c>
     </row>
@@ -11724,14 +11732,14 @@
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A29"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.5166666666667"/>
-    <col min="2" max="2" width="54.0416666666667" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
     <col min="3" max="8" width="11.5166666666667"/>
     <col min="9" max="9" width="11.5166666666667" style="9"/>
     <col min="10" max="10" width="11.5166666666667"/>
@@ -12666,7 +12674,7 @@
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
@@ -13514,7 +13522,7 @@
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A5" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A43"/>
     </sheetView>
   </sheetViews>
@@ -14886,15 +14894,16 @@
   <sheetPr/>
   <dimension ref="A1:K224"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G45"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.98333333333333" customWidth="1"/>
     <col min="2" max="2" width="52.375" customWidth="1"/>
-    <col min="3" max="10" width="11.5166666666667"/>
+    <col min="3" max="9" width="11.5166666666667"/>
+    <col min="10" max="10" width="6.875" customWidth="1"/>
     <col min="11" max="11" width="182.433333333333" customWidth="1"/>
     <col min="12" max="1025" width="11.5166666666667"/>
   </cols>
@@ -14989,11 +14998,11 @@
         <v>3.1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="27" t="str">
         <f>CONCATENATE($A$1,A3,$B$1,B3,$C$1,B3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,$I$1,I3,$J$1,J3,$K$1)</f>
-        <v>{"Requisite":{"id":70,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":70,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15020,11 +15029,11 @@
         <v>3.2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="27" t="str">
         <f>CONCATENATE($A$1,A4,$B$1,B4,$C$1,B4,$D$1,D4,$E$1,E4,$F$1,F4,$G$1,G4,$H$1,$I$1,I4,$J$1,J4,$K$1)</f>
-        <v>{"Requisite":{"id":71,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":71,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15051,11 +15060,11 @@
         <v>3.3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="27" t="str">
         <f>CONCATENATE($A$1,A5,$B$1,B5,$C$1,B5,$D$1,D5,$E$1,E5,$F$1,F5,$G$1,G5,$H$1,$I$1,I5,$J$1,J5,$K$1)</f>
-        <v>{"Requisite":{"id":72,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","description":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":72,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","description":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15082,11 +15091,11 @@
         <v>3.4</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="27" t="str">
         <f>CONCATENATE($A$1,A6,$B$1,B6,$C$1,B6,$D$1,D6,$E$1,E6,$F$1,F6,$G$1,G6,$H$1,$I$1,I6,$J$1,J6,$K$1)</f>
-        <v>{"Requisite":{"id":73,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":73,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15113,11 +15122,11 @@
         <v>3.5</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="27" t="str">
         <f>CONCATENATE($A$1,A7,$B$1,B7,$C$1,B7,$D$1,D7,$E$1,E7,$F$1,F7,$G$1,G7,$H$1,$I$1,I7,$J$1,J7,$K$1)</f>
-        <v>{"Requisite":{"id":74,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":74,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15144,11 +15153,11 @@
         <v>3.6</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="27" t="str">
         <f>CONCATENATE($A$1,A8,$B$1,B8,$C$1,B8,$D$1,D8,$E$1,E8,$F$1,F8,$G$1,G8,$H$1,$I$1,I8,$J$1,J8,$K$1)</f>
-        <v>{"Requisite":{"id":75,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":75,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15175,11 +15184,11 @@
         <v>3.7</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="27" t="str">
         <f>CONCATENATE($A$1,A9,$B$1,B9,$C$1,B9,$D$1,D9,$E$1,E9,$F$1,F9,$G$1,G9,$H$1,$I$1,I9,$J$1,J9,$K$1)</f>
-        <v>{"Requisite":{"id":76,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,7","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":76,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,7","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15238,11 +15247,11 @@
         <v>93</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="27" t="str">
         <f>CONCATENATE($A$1,A11,$B$1,B11,$C$1,B11,$D$1,D11,$E$1,E11,$F$1,F11,$G$1,G11,$H$1,$I$1,I11,$J$1,J11,$K$1)</f>
-        <v>{"Requisite":{"id":78,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.1","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":78,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.1","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15269,11 +15278,11 @@
         <v>94</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="27" t="str">
         <f>CONCATENATE($A$1,A12,$B$1,B12,$C$1,B12,$D$1,D12,$E$1,E12,$F$1,F12,$G$1,G12,$H$1,$I$1,I12,$J$1,J12,$K$1)</f>
-        <v>{"Requisite":{"id":79,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.2","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":79,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.2","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15300,11 +15309,11 @@
         <v>95</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="27" t="str">
         <f>CONCATENATE($A$1,A13,$B$1,B13,$C$1,B13,$D$1,D13,$E$1,E13,$F$1,F13,$G$1,G13,$H$1,$I$1,I13,$J$1,J13,$K$1)</f>
-        <v>{"Requisite":{"id":80,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.3","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":80,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.3","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15331,11 +15340,11 @@
         <v>3.9</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="27" t="str">
         <f>CONCATENATE($A$1,A14,$B$1,B14,$C$1,B14,$D$1,D14,$E$1,E14,$F$1,F14,$G$1,G14,$H$1,$I$1,I14,$J$1,J14,$K$1)</f>
-        <v>{"Requisite":{"id":81,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con el suministro de agua permanente en el establecimiento.","description":"Contar con el suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":81,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con el suministro de agua permanente en el establecimiento.","description":"Contar con el suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15362,11 +15371,11 @@
         <v>3.1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="27" t="str">
         <f>CONCATENATE($A$1,A15,$B$1,B15,$C$1,B15,$D$1,D15,$E$1,E15,$F$1,F15,$G$1,G15,$H$1,$I$1,I15,$J$1,J15,$K$1)</f>
-        <v>{"Requisite":{"id":82,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":82,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15393,11 +15402,11 @@
         <v>3.11</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="27" t="str">
         <f>CONCATENATE($A$1,A16,$B$1,B16,$C$1,B16,$D$1,D16,$E$1,E16,$F$1,F16,$G$1,G16,$H$1,$I$1,I16,$J$1,J16,$K$1)</f>
-        <v>{"Requisite":{"id":83,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":83,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15424,11 +15433,11 @@
         <v>3.12</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="27" t="str">
         <f>CONCATENATE($A$1,A17,$B$1,B17,$C$1,B17,$D$1,D17,$E$1,E17,$F$1,F17,$G$1,G17,$H$1,$I$1,I17,$J$1,J17,$K$1)</f>
-        <v>{"Requisite":{"id":84,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":84,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15455,11 +15464,11 @@
         <v>3.13</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="27" t="str">
         <f>CONCATENATE($A$1,A18,$B$1,B18,$C$1,B18,$D$1,D18,$E$1,E18,$F$1,F18,$G$1,G18,$H$1,$I$1,I18,$J$1,J18,$K$1)</f>
-        <v>{"Requisite":{"id":85,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":85,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15486,11 +15495,11 @@
         <v>3.14</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="27" t="str">
         <f>CONCATENATE($A$1,A19,$B$1,B19,$C$1,B19,$D$1,D19,$E$1,E19,$F$1,F19,$G$1,G19,$H$1,$I$1,I19,$J$1,J19,$K$1)</f>
-        <v>{"Requisite":{"id":86,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación. ","description":"Contar con sumideros en áreas de preparación. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":86,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación. ","description":"Contar con sumideros en áreas de preparación. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15517,11 +15526,11 @@
         <v>3.15</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="27" t="str">
         <f>CONCATENATE($A$1,A20,$B$1,B20,$C$1,B20,$D$1,D20,$E$1,E20,$F$1,F20,$G$1,G20,$H$1,$I$1,I20,$J$1,J20,$K$1)</f>
-        <v>{"Requisite":{"id":87,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de energía eléctrica en el establecimiento.","description":"Contar con suministro de energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":87,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de energía eléctrica en el establecimiento.","description":"Contar con suministro de energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15548,11 +15557,11 @@
         <v>3.16</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="27" t="str">
         <f>CONCATENATE($A$1,A21,$B$1,B21,$C$1,B21,$D$1,D21,$E$1,E21,$F$1,F21,$G$1,G21,$H$1,$I$1,I21,$J$1,J21,$K$1)</f>
-        <v>{"Requisite":{"id":88,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":88,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15579,11 +15588,11 @@
         <v>3.17</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="27" t="str">
         <f>CONCATENATE($A$1,A22,$B$1,B22,$C$1,B22,$D$1,D22,$E$1,E22,$F$1,F22,$G$1,G22,$H$1,$I$1,I22,$J$1,J22,$K$1)</f>
-        <v>{"Requisite":{"id":89,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":89,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15610,11 +15619,11 @@
         <v>3.18</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="27" t="str">
         <f>CONCATENATE($A$1,A23,$B$1,B23,$C$1,B23,$D$1,D23,$E$1,E23,$F$1,F23,$G$1,G23,$H$1,$I$1,I23,$J$1,J23,$K$1)</f>
-        <v>{"Requisite":{"id":90,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":90,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15641,11 +15650,11 @@
         <v>3.19</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="27" t="str">
         <f>CONCATENATE($A$1,A24,$B$1,B24,$C$1,B24,$D$1,D24,$E$1,E24,$F$1,F24,$G$1,G24,$H$1,$I$1,I24,$J$1,J24,$K$1)</f>
-        <v>{"Requisite":{"id":91,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":91,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15672,11 +15681,11 @@
         <v>3.2</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="27" t="str">
         <f>CONCATENATE($A$1,A25,$B$1,B25,$C$1,B25,$D$1,D25,$E$1,E25,$F$1,F25,$G$1,G25,$H$1,$I$1,I25,$J$1,J25,$K$1)</f>
-        <v>{"Requisite":{"id":92,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje y licores, separada del área de preparación de alimentos y bebidas.","description":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje y licores, separada del área de preparación de alimentos y bebidas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":92,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje y licores, separada del área de preparación de alimentos y bebidas.","description":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje y licores, separada del área de preparación de alimentos y bebidas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15703,11 +15712,11 @@
         <v>3.21</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="27" t="str">
         <f>CONCATENATE($A$1,A26,$B$1,B26,$C$1,B26,$D$1,D26,$E$1,E26,$F$1,F26,$G$1,G26,$H$1,$I$1,I26,$J$1,J26,$K$1)</f>
-        <v>{"Requisite":{"id":93,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","description":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":93,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","description":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15734,11 +15743,11 @@
         <v>3.22</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="27" t="str">
         <f>CONCATENATE($A$1,A27,$B$1,B27,$C$1,B27,$D$1,D27,$E$1,E27,$F$1,F27,$G$1,G27,$H$1,$I$1,I27,$J$1,J27,$K$1)</f>
-        <v>{"Requisite":{"id":94,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":94,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15765,11 +15774,11 @@
         <v>3.23</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="27" t="str">
         <f>CONCATENATE($A$1,A28,$B$1,B28,$C$1,B28,$D$1,D28,$E$1,E28,$F$1,F28,$G$1,G28,$H$1,$I$1,I28,$J$1,J28,$K$1)</f>
-        <v>{"Requisite":{"id":95,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las áreas del establecimiento deben contar con sistemas de ventilación natural y/o forzada que permita el flujo de aire y la no acumulación de olores.","description":"Las áreas del establecimiento deben contar con sistemas de ventilación natural y/o forzada que permita el flujo de aire y la no acumulación de olores.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":95,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las áreas del establecimiento deben contar con sistemas de ventilación natural y/o forzada que permita el flujo de aire y la no acumulación de olores.","description":"Las áreas del establecimiento deben contar con sistemas de ventilación natural y/o forzada que permita el flujo de aire y la no acumulación de olores.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15796,11 +15805,11 @@
         <v>3.24</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="27" t="str">
         <f>CONCATENATE($A$1,A29,$B$1,B29,$C$1,B29,$D$1,D29,$E$1,E29,$F$1,F29,$G$1,G29,$H$1,$I$1,I29,$J$1,J29,$K$1)</f>
-        <v>{"Requisite":{"id":96,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":96,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15827,11 +15836,11 @@
         <v>3.25</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="27" t="str">
         <f>CONCATENATE($A$1,A30,$B$1,B30,$C$1,B30,$D$1,D30,$E$1,E30,$F$1,F30,$G$1,G30,$H$1,$I$1,I30,$J$1,J30,$K$1)</f>
-        <v>{"Requisite":{"id":97,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":97,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15858,11 +15867,11 @@
         <v>3.26</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="27" t="str">
         <f>CONCATENATE($A$1,A31,$B$1,B31,$C$1,B31,$D$1,D31,$E$1,E31,$F$1,F31,$G$1,G31,$H$1,$I$1,I31,$J$1,J31,$K$1)</f>
-        <v>{"Requisite":{"id":98,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":98,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15889,11 +15898,11 @@
         <v>3.27</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="27" t="str">
         <f>CONCATENATE($A$1,A32,$B$1,B32,$C$1,B32,$D$1,D32,$E$1,E32,$F$1,F32,$G$1,G32,$H$1,$I$1,I32,$J$1,J32,$K$1)</f>
-        <v>{"Requisite":{"id":99,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":99,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15920,11 +15929,11 @@
         <v>3.28</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="27" t="str">
         <f>CONCATENATE($A$1,A33,$B$1,B33,$C$1,B33,$D$1,D33,$E$1,E33,$F$1,F33,$G$1,G33,$H$1,$I$1,I33,$J$1,J33,$K$1)</f>
-        <v>{"Requisite":{"id":100,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":100,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15951,11 +15960,11 @@
         <v>3.29</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="27" t="str">
         <f>CONCATENATE($A$1,A34,$B$1,B34,$C$1,B34,$D$1,D34,$E$1,E34,$F$1,F34,$G$1,G34,$H$1,$I$1,I34,$J$1,J34,$K$1)</f>
-        <v>{"Requisite":{"id":101,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":101,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -15982,11 +15991,11 @@
         <v>3.3</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="27" t="str">
         <f>CONCATENATE($A$1,A35,$B$1,B35,$C$1,B35,$D$1,D35,$E$1,E35,$F$1,F35,$G$1,G35,$H$1,$I$1,I35,$J$1,J35,$K$1)</f>
-        <v>{"Requisite":{"id":102,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un plan de contingencia aprobado por la Autoridad Nacional en Gestión de Riesgos o la unidad respectiva de cada Gobierno Autónomo Descentralizado competente.","description":"Contar con un plan de contingencia aprobado por la Autoridad Nacional en Gestión de Riesgos o la unidad respectiva de cada Gobierno Autónomo Descentralizado competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":102,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un plan de contingencia aprobado por la Autoridad Nacional en Gestión de Riesgos o la unidad respectiva de cada Gobierno Autónomo Descentralizado competente.","description":"Contar con un plan de contingencia aprobado por la Autoridad Nacional en Gestión de Riesgos o la unidad respectiva de cada Gobierno Autónomo Descentralizado competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -16013,11 +16022,11 @@
         <v>3.31</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="27" t="str">
         <f>CONCATENATE($A$1,A36,$B$1,B36,$C$1,B36,$D$1,D36,$E$1,E36,$F$1,F36,$G$1,G36,$H$1,$I$1,I36,$J$1,J36,$K$1)</f>
-        <v>{"Requisite":{"id":103,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":103,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -16044,11 +16053,11 @@
         <v>3.32</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="27" t="str">
         <f>CONCATENATE($A$1,A37,$B$1,B37,$C$1,B37,$D$1,D37,$E$1,E37,$F$1,F37,$G$1,G37,$H$1,$I$1,I37,$J$1,J37,$K$1)</f>
-        <v>{"Requisite":{"id":104,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un área específica de bar / cafeteria.","description":"Contar con un área específica de bar / cafeteria.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":104,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un área específica de bar / cafeteria.","description":"Contar con un área específica de bar / cafeteria.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -16075,11 +16084,11 @@
         <v>3.33</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="27" t="str">
         <f>CONCATENATE($A$1,A38,$B$1,B38,$C$1,B38,$D$1,D38,$E$1,E38,$F$1,F38,$G$1,G38,$H$1,$I$1,I38,$J$1,J38,$K$1)</f>
-        <v>{"Requisite":{"id":105,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salidas de emergencia identificadas y habilitadas.","description":"Contar con salidas de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":105,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salidas de emergencia identificadas y habilitadas.","description":"Contar con salidas de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -16106,11 +16115,11 @@
         <v>3.34</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="27" t="str">
         <f>CONCATENATE($A$1,A39,$B$1,B39,$C$1,B39,$D$1,D39,$E$1,E39,$F$1,F39,$G$1,G39,$H$1,$I$1,I39,$J$1,J39,$K$1)</f>
-        <v>{"Requisite":{"id":106,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con cámaras de seguridad interconectadas con el ECU 911.","description":"Contar con cámaras de seguridad interconectadas con el ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":106,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con cámaras de seguridad interconectadas con el ECU 911.","description":"Contar con cámaras de seguridad interconectadas con el ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -16137,11 +16146,11 @@
         <v>3.35</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="27" t="str">
         <f>CONCATENATE($A$1,A40,$B$1,B40,$C$1,B40,$D$1,D40,$E$1,E40,$F$1,F40,$G$1,G40,$H$1,$I$1,I40,$J$1,J40,$K$1)</f>
-        <v>{"Requisite":{"id":107,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los pisos del área de producción deben ser de un material de fácil limpieza, antideslizantes y lavables (puede aplicar el uso de moquetas antideslizantes).","description":"Los pisos del área de producción deben ser de un material de fácil limpieza, antideslizantes y lavables (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":107,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los pisos del área de producción deben ser de un material de fácil limpieza, antideslizantes y lavables (puede aplicar el uso de moquetas antideslizantes).","description":"Los pisos del área de producción deben ser de un material de fácil limpieza, antideslizantes y lavables (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -16168,11 +16177,11 @@
         <v>3.36</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="27" t="str">
         <f>CONCATENATE($A$1,A41,$B$1,B41,$C$1,B41,$D$1,D41,$E$1,E41,$F$1,F41,$G$1,G41,$H$1,$I$1,I41,$J$1,J41,$K$1)</f>
-        <v>{"Requisite":{"id":108,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":108,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -16199,11 +16208,11 @@
         <v>3.37</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="27" t="str">
         <f>CONCATENATE($A$1,A42,$B$1,B42,$C$1,B42,$D$1,D42,$E$1,E42,$F$1,F42,$G$1,G42,$H$1,$I$1,I42,$J$1,J42,$K$1)</f>
-        <v>{"Requisite":{"id":109,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":109,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -16230,11 +16239,11 @@
         <v>3.38</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="27" t="str">
         <f>CONCATENATE($A$1,A43,$B$1,B43,$C$1,B43,$D$1,D43,$E$1,E43,$F$1,F43,$G$1,G43,$H$1,$I$1,I43,$J$1,J43,$K$1)</f>
-        <v>{"Requisite":{"id":110,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":110,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -16261,11 +16270,11 @@
         <v>3.39</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="27" t="str">
         <f>CONCATENATE($A$1,A44,$B$1,B44,$C$1,B44,$D$1,D44,$E$1,E44,$F$1,F44,$G$1,G44,$H$1,$I$1,I44,$J$1,J44,$K$1)</f>
-        <v>{"Requisite":{"id":111,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","description":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":111,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","description":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -16292,11 +16301,11 @@
         <v>3.4</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="27" t="str">
         <f>CONCATENATE($A$1,A45,$B$1,B45,$C$1,B45,$D$1,D45,$E$1,E45,$F$1,F45,$G$1,G45,$H$1,$I$1,I45,$J$1,J45,$K$1)</f>
-        <v>{"Requisite":{"id":112,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":6},"attach":[]},
+        <v>{"Requisite":{"id":112,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":6},"attach":[]},
 </v>
       </c>
     </row>
@@ -17162,8 +17171,8 @@
   <sheetPr/>
   <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G46"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -17254,7 +17263,7 @@
       <c r="E3" s="21">
         <v>1</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="39" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -17263,12 +17272,12 @@
       <c r="I3" s="28">
         <v>3.1</v>
       </c>
-      <c r="J3" s="21">
-        <v>1</v>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3" s="21" t="str">
         <f>CONCATENATE($A$1,A3,$B$1,B3,$C$1,B3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,$I$1,I3,$J$1,J3,$K$1)</f>
-        <v>{"Requisite":{"id":136,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":136,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17295,11 +17304,11 @@
         <v>3.2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE($A$1,A4,$B$1,B4,$C$1,B4,$D$1,D4,$E$1,E4,$F$1,F4,$G$1,G4,$H$1,$I$1,I4,$J$1,J4,$K$1)</f>
-        <v>{"Requisite":{"id":137,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":137,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17326,11 +17335,11 @@
         <v>3.3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
         <f>CONCATENATE($A$1,A5,$B$1,B5,$C$1,B5,$D$1,D5,$E$1,E5,$F$1,F5,$G$1,G5,$H$1,$I$1,I5,$J$1,J5,$K$1)</f>
-        <v>{"Requisite":{"id":138,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":138,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17357,11 +17366,11 @@
         <v>3.4</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="str">
         <f>CONCATENATE($A$1,A6,$B$1,B6,$C$1,B6,$D$1,D6,$E$1,E6,$F$1,F6,$G$1,G6,$H$1,$I$1,I6,$J$1,J6,$K$1)</f>
-        <v>{"Requisite":{"id":139,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":139,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17388,11 +17397,11 @@
         <v>3.5</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="str">
         <f>CONCATENATE($A$1,A7,$B$1,B7,$C$1,B7,$D$1,D7,$E$1,E7,$F$1,F7,$G$1,G7,$H$1,$I$1,I7,$J$1,J7,$K$1)</f>
-        <v>{"Requisite":{"id":140,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":140,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17419,11 +17428,11 @@
         <v>3.6</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE($A$1,A8,$B$1,B8,$C$1,B8,$D$1,D8,$E$1,E8,$F$1,F8,$G$1,G8,$H$1,$I$1,I8,$J$1,J8,$K$1)</f>
-        <v>{"Requisite":{"id":141,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":141,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17481,11 +17490,11 @@
         <v>26</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="str">
         <f>CONCATENATE($A$1,A10,$B$1,B10,$C$1,B10,$D$1,D10,$E$1,E10,$F$1,F10,$G$1,G10,$H$1,$I$1,I10,$J$1,J10,$K$1)</f>
-        <v>{"Requisite":{"id":143,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.1","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":143,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.1","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17512,11 +17521,11 @@
         <v>28</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE($A$1,A11,$B$1,B11,$C$1,B11,$D$1,D11,$E$1,E11,$F$1,F11,$G$1,G11,$H$1,$I$1,I11,$J$1,J11,$K$1)</f>
-        <v>{"Requisite":{"id":144,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.2","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":144,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.2","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17543,11 +17552,11 @@
         <v>30</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="str">
         <f>CONCATENATE($A$1,A12,$B$1,B12,$C$1,B12,$D$1,D12,$E$1,E12,$F$1,F12,$G$1,G12,$H$1,$I$1,I12,$J$1,J12,$K$1)</f>
-        <v>{"Requisite":{"id":145,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.3","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":145,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.3","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17574,11 +17583,11 @@
         <v>3.8</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="str">
         <f>CONCATENATE($A$1,A13,$B$1,B13,$C$1,B13,$D$1,D13,$E$1,E13,$F$1,F13,$G$1,G13,$H$1,$I$1,I13,$J$1,J13,$K$1)</f>
-        <v>{"Requisite":{"id":146,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,8","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":146,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,8","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17605,11 +17614,11 @@
         <v>3.9</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="str">
         <f>CONCATENATE($A$1,A14,$B$1,B14,$C$1,B14,$D$1,D14,$E$1,E14,$F$1,F14,$G$1,G14,$H$1,$I$1,I14,$J$1,J14,$K$1)</f>
-        <v>{"Requisite":{"id":147,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con alarma de incendios y/o detector de humo.","description":"Debe contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":147,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con alarma de incendios y/o detector de humo.","description":"Debe contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17636,11 +17645,11 @@
         <v>3.1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="str">
         <f>CONCATENATE($A$1,A15,$B$1,B15,$C$1,B15,$D$1,D15,$E$1,E15,$F$1,F15,$G$1,G15,$H$1,$I$1,I15,$J$1,J15,$K$1)</f>
-        <v>{"Requisite":{"id":148,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":148,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17667,11 +17676,11 @@
         <v>3.11</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE($A$1,A16,$B$1,B16,$C$1,B16,$D$1,D16,$E$1,E16,$F$1,F16,$G$1,G16,$H$1,$I$1,I16,$J$1,J16,$K$1)</f>
-        <v>{"Requisite":{"id":149,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":149,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17698,11 +17707,11 @@
         <v>3.12</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="str">
         <f>CONCATENATE($A$1,A17,$B$1,B17,$C$1,B17,$D$1,D17,$E$1,E17,$F$1,F17,$G$1,G17,$H$1,$I$1,I17,$J$1,J17,$K$1)</f>
-        <v>{"Requisite":{"id":150,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":150,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17729,11 +17738,11 @@
         <v>3.13</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="str">
         <f>CONCATENATE($A$1,A18,$B$1,B18,$C$1,B18,$D$1,D18,$E$1,E18,$F$1,F18,$G$1,G18,$H$1,$I$1,I18,$J$1,J18,$K$1)</f>
-        <v>{"Requisite":{"id":151,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con sumideros en áreas de preparación de alimentos.","description":"Debe contar con sumideros en áreas de preparación de alimentos.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":151,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con sumideros en áreas de preparación de alimentos.","description":"Debe contar con sumideros en áreas de preparación de alimentos.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17760,11 +17769,11 @@
         <v>3.14</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE($A$1,A19,$B$1,B19,$C$1,B19,$D$1,D19,$E$1,E19,$F$1,F19,$G$1,G19,$H$1,$I$1,I19,$J$1,J19,$K$1)</f>
-        <v>{"Requisite":{"id":152,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con un equipo que garantice la extracción de humos y olores de la zona de cocción.","description":"Debe contar con un equipo que garantice la extracción de humos y olores de la zona de cocción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":152,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con un equipo que garantice la extracción de humos y olores de la zona de cocción.","description":"Debe contar con un equipo que garantice la extracción de humos y olores de la zona de cocción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17791,11 +17800,11 @@
         <v>3.15</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="str">
         <f>CONCATENATE($A$1,A20,$B$1,B20,$C$1,B20,$D$1,D20,$E$1,E20,$F$1,F20,$G$1,G20,$H$1,$I$1,I20,$J$1,J20,$K$1)</f>
-        <v>{"Requisite":{"id":153,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente. ","description":"Debe contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":153,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente. ","description":"Debe contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17822,11 +17831,11 @@
         <v>3.16</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="str">
         <f>CONCATENATE($A$1,A21,$B$1,B21,$C$1,B21,$D$1,D21,$E$1,E21,$F$1,F21,$G$1,G21,$H$1,$I$1,I21,$J$1,J21,$K$1)</f>
-        <v>{"Requisite":{"id":154,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Nota: se exceptúa para los establecimientos que compartan baños","description":"Nota: se exceptúa para los establecimientos que compartan baños","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":154,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Nota: se exceptúa para los establecimientos que compartan baños","description":"Nota: se exceptúa para los establecimientos que compartan baños","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17853,11 +17862,11 @@
         <v>3.17</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="str">
         <f>CONCATENATE($A$1,A22,$B$1,B22,$C$1,B22,$D$1,D22,$E$1,E22,$F$1,F22,$G$1,G22,$H$1,$I$1,I22,$J$1,J22,$K$1)</f>
-        <v>{"Requisite":{"id":155,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":155,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17884,11 +17893,11 @@
         <v>3.18</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="str">
         <f>CONCATENATE($A$1,A23,$B$1,B23,$C$1,B23,$D$1,D23,$E$1,E23,$F$1,F23,$G$1,G23,$H$1,$I$1,I23,$J$1,J23,$K$1)</f>
-        <v>{"Requisite":{"id":156,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":156,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17915,11 +17924,11 @@
         <v>3.19</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="str">
         <f>CONCATENATE($A$1,A24,$B$1,B24,$C$1,B24,$D$1,D24,$E$1,E24,$F$1,F24,$G$1,G24,$H$1,$I$1,I24,$J$1,J24,$K$1)</f>
-        <v>{"Requisite":{"id":157,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":157,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17946,11 +17955,11 @@
         <v>3.2</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="str">
         <f>CONCATENATE($A$1,A25,$B$1,B25,$C$1,B25,$D$1,D25,$E$1,E25,$F$1,F25,$G$1,G25,$H$1,$I$1,I25,$J$1,J25,$K$1)</f>
-        <v>{"Requisite":{"id":158,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal del establecimiento debe usar protector para el cabello.","description":"El personal del establecimiento debe usar protector para el cabello.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":158,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal del establecimiento debe usar protector para el cabello.","description":"El personal del establecimiento debe usar protector para el cabello.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -17977,11 +17986,11 @@
         <v>3.21</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="str">
         <f>CONCATENATE($A$1,A26,$B$1,B26,$C$1,B26,$D$1,D26,$E$1,E26,$F$1,F26,$G$1,G26,$H$1,$I$1,I26,$J$1,J26,$K$1)</f>
-        <v>{"Requisite":{"id":159,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":159,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18008,11 +18017,11 @@
         <v>3.22</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="str">
         <f>CONCATENATE($A$1,A27,$B$1,B27,$C$1,B27,$D$1,D27,$E$1,E27,$F$1,F27,$G$1,G27,$H$1,$I$1,I27,$J$1,J27,$K$1)</f>
-        <v>{"Requisite":{"id":160,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":160,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18039,11 +18048,11 @@
         <v>3.23</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="str">
         <f>CONCATENATE($A$1,A28,$B$1,B28,$C$1,B28,$D$1,D28,$E$1,E28,$F$1,F28,$G$1,G28,$H$1,$I$1,I28,$J$1,J28,$K$1)</f>
-        <v>{"Requisite":{"id":161,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":161,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18070,11 +18079,11 @@
         <v>3.24</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="str">
         <f>CONCATENATE($A$1,A29,$B$1,B29,$C$1,B29,$D$1,D29,$E$1,E29,$F$1,F29,$G$1,G29,$H$1,$I$1,I29,$J$1,J29,$K$1)</f>
-        <v>{"Requisite":{"id":162,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","description":"Debe contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":162,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","description":"Debe contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18101,11 +18110,11 @@
         <v>3.25</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="str">
         <f>CONCATENATE($A$1,A30,$B$1,B30,$C$1,B30,$D$1,D30,$E$1,E30,$F$1,F30,$G$1,G30,$H$1,$I$1,I30,$J$1,J30,$K$1)</f>
-        <v>{"Requisite":{"id":163,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","description":"Debe contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":163,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","description":"Debe contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18132,11 +18141,11 @@
         <v>3.26</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="str">
         <f>CONCATENATE($A$1,A31,$B$1,B31,$C$1,B31,$D$1,D31,$E$1,E31,$F$1,F31,$G$1,G31,$H$1,$I$1,I31,$J$1,J31,$K$1)</f>
-        <v>{"Requisite":{"id":164,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":164,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18163,11 +18172,11 @@
         <v>3.27</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="str">
         <f>CONCATENATE($A$1,A32,$B$1,B32,$C$1,B32,$D$1,D32,$E$1,E32,$F$1,F32,$G$1,G32,$H$1,$I$1,I32,$J$1,J32,$K$1)</f>
-        <v>{"Requisite":{"id":165,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Debe contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":165,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Debe contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18194,11 +18203,11 @@
         <v>3.28</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="str">
         <f>CONCATENATE($A$1,A33,$B$1,B33,$C$1,B33,$D$1,D33,$E$1,E33,$F$1,F33,$G$1,G33,$H$1,$I$1,I33,$J$1,J33,$K$1)</f>
-        <v>{"Requisite":{"id":166,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias, y protegidas contra ingreso de roedores, animales y personas ajenas al servicio.","description":"Todas las áreas de almacenamiento deben mantenerse limpias, y protegidas contra ingreso de roedores, animales y personas ajenas al servicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":166,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias, y protegidas contra ingreso de roedores, animales y personas ajenas al servicio.","description":"Todas las áreas de almacenamiento deben mantenerse limpias, y protegidas contra ingreso de roedores, animales y personas ajenas al servicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18225,11 +18234,11 @@
         <v>3.29</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="str">
         <f>CONCATENATE($A$1,A34,$B$1,B34,$C$1,B34,$D$1,D34,$E$1,E34,$F$1,F34,$G$1,G34,$H$1,$I$1,I34,$J$1,J34,$K$1)</f>
-        <v>{"Requisite":{"id":167,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Deben contar con trampa de grasa en el área de producción y área de lavado de vajilla.","description":"Deben contar con trampa de grasa en el área de producción y área de lavado de vajilla.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":167,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Deben contar con trampa de grasa en el área de producción y área de lavado de vajilla.","description":"Deben contar con trampa de grasa en el área de producción y área de lavado de vajilla.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18256,11 +18265,11 @@
         <v>3.3</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="str">
         <f>CONCATENATE($A$1,A35,$B$1,B35,$C$1,B35,$D$1,D35,$E$1,E35,$F$1,F35,$G$1,G35,$H$1,$I$1,I35,$J$1,J35,$K$1)</f>
-        <v>{"Requisite":{"id":168,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":168,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18287,11 +18296,11 @@
         <v>3.31</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="str">
         <f>CONCATENATE($A$1,A36,$B$1,B36,$C$1,B36,$D$1,D36,$E$1,E36,$F$1,F36,$G$1,G36,$H$1,$I$1,I36,$J$1,J36,$K$1)</f>
-        <v>{"Requisite":{"id":169,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con un informativo del correcto lavado de manos en el área de producción.","description":"Debe contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":169,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con un informativo del correcto lavado de manos en el área de producción.","description":"Debe contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18318,11 +18327,11 @@
         <v>3.32</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="str">
         <f>CONCATENATE($A$1,A37,$B$1,B37,$C$1,B37,$D$1,D37,$E$1,E37,$F$1,F37,$G$1,G37,$H$1,$I$1,I37,$J$1,J37,$K$1)</f>
-        <v>{"Requisite":{"id":170,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Debe exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":170,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Debe exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18349,11 +18358,11 @@
         <v>3.33</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="str">
         <f>CONCATENATE($A$1,A38,$B$1,B38,$C$1,B38,$D$1,D38,$E$1,E38,$F$1,F38,$G$1,G38,$H$1,$I$1,I38,$J$1,J38,$K$1)</f>
-        <v>{"Requisite":{"id":171,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo en áreas de producción deben aislarse con protectores en caso de rotura.","description":"Focos y lámparas de techo en áreas de producción deben aislarse con protectores en caso de rotura.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":171,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo en áreas de producción deben aislarse con protectores en caso de rotura.","description":"Focos y lámparas de techo en áreas de producción deben aislarse con protectores en caso de rotura.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18380,11 +18389,11 @@
         <v>3.34</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="str">
         <f>CONCATENATE($A$1,A39,$B$1,B39,$C$1,B39,$D$1,D39,$E$1,E39,$F$1,F39,$G$1,G39,$H$1,$I$1,I39,$J$1,J39,$K$1)</f>
-        <v>{"Requisite":{"id":172,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":172,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18411,11 +18420,11 @@
         <v>3.35</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="str">
         <f>CONCATENATE($A$1,A40,$B$1,B40,$C$1,B40,$D$1,D40,$E$1,E40,$F$1,F40,$G$1,G40,$H$1,$I$1,I40,$J$1,J40,$K$1)</f>
-        <v>{"Requisite":{"id":173,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salida(s) de emergencia identificadas y habilitadas.","description":"Contar con salida(s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":173,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salida(s) de emergencia identificadas y habilitadas.","description":"Contar con salida(s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18442,11 +18451,11 @@
         <v>3.36</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="str">
         <f>CONCATENATE($A$1,A41,$B$1,B41,$C$1,B41,$D$1,D41,$E$1,E41,$F$1,F41,$G$1,G41,$H$1,$I$1,I41,$J$1,J41,$K$1)</f>
-        <v>{"Requisite":{"id":174,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con suministro continuo de energía eléctrica.","description":"Debe contar con suministro continuo de energía eléctrica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":174,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con suministro continuo de energía eléctrica.","description":"Debe contar con suministro continuo de energía eléctrica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18473,11 +18482,11 @@
         <v>3.37</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE($A$1,A42,$B$1,B42,$C$1,B42,$D$1,D42,$E$1,E42,$F$1,F42,$G$1,G42,$H$1,$I$1,I42,$J$1,J42,$K$1)</f>
-        <v>{"Requisite":{"id":175,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","description":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":175,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","description":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18504,11 +18513,11 @@
         <v>3.38</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="str">
         <f>CONCATENATE($A$1,A43,$B$1,B43,$C$1,B43,$D$1,D43,$E$1,E43,$F$1,F43,$G$1,G43,$H$1,$I$1,I43,$J$1,J43,$K$1)</f>
-        <v>{"Requisite":{"id":176,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de servicio conoce el detalle del contenido de la carta.","description":"El personal de servicio conoce el detalle del contenido de la carta.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":176,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de servicio conoce el detalle del contenido de la carta.","description":"El personal de servicio conoce el detalle del contenido de la carta.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18535,11 +18544,11 @@
         <v>3.39</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="str">
         <f>CONCATENATE($A$1,A44,$B$1,B44,$C$1,B44,$D$1,D44,$E$1,E44,$F$1,F44,$G$1,G44,$H$1,$I$1,I44,$J$1,J44,$K$1)</f>
-        <v>{"Requisite":{"id":177,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","description":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":177,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","description":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18566,11 +18575,11 @@
         <v>3.4</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="str">
         <f>CONCATENATE($A$1,A45,$B$1,B45,$C$1,B45,$D$1,D45,$E$1,E45,$F$1,F45,$G$1,G45,$H$1,$I$1,I45,$J$1,J45,$K$1)</f>
-        <v>{"Requisite":{"id":178,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","description":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":178,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","description":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -18597,11 +18606,11 @@
         <v>3.41</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="str">
         <f>CONCATENATE($A$1,A46,$B$1,B46,$C$1,B46,$D$1,D46,$E$1,E46,$F$1,F46,$G$1,G46,$H$1,$I$1,I46,$J$1,J46,$K$1)</f>
-        <v>{"Requisite":{"id":179,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,41","score":1,"register_type_id":11},"attach":[]},
+        <v>{"Requisite":{"id":179,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,41","score":0,"register_type_id":11},"attach":[]},
 </v>
       </c>
     </row>
@@ -19839,7 +19848,7 @@
       <c r="J86" s="17">
         <v>0</v>
       </c>
-      <c r="K86" s="39" t="str">
+      <c r="K86" s="40" t="str">
         <f>CONCATENATE($A$1,A86,$B$1,B86,$C$1,B86,$D$1,D86,$E$1,E86,$F$1,F86,$G$1,G86,$H$1,$I$1,I86,$J$1,J86,$K$1)</f>
         <v>{"Requisite":{"id":219,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Respetando los parámetros del ARCSA en relación de uso del aceite","description":"Respetando los parámetros del ARCSA en relación de uso del aceite","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,39","score":0,"register_type_id":11},"attach":[]},
 </v>
@@ -19870,7 +19879,7 @@
       <c r="J87" s="17">
         <v>6</v>
       </c>
-      <c r="K87" s="39" t="str">
+      <c r="K87" s="40" t="str">
         <f>CONCATENATE($A$1,A87,$B$1,B87,$C$1,B87,$D$1,D87,$E$1,E87,$F$1,F87,$G$1,G87,$H$1,$I$1,I87,$J$1,J87,$K$1)</f>
         <v>{"Requisite":{"id":220,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con un plan maestro de limpieza.","description":"Cuenta con un plan maestro de limpieza.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,4","score":6,"register_type_id":11},"attach":[]},
 </v>
@@ -19901,7 +19910,7 @@
       <c r="J88" s="17">
         <v>4</v>
       </c>
-      <c r="K88" s="39" t="str">
+      <c r="K88" s="40" t="str">
         <f>CONCATENATE($A$1,A88,$B$1,B88,$C$1,B88,$D$1,D88,$E$1,E88,$F$1,F88,$G$1,G88,$H$1,$I$1,I88,$J$1,J88,$K$1)</f>
         <v>{"Requisite":{"id":221,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las áreas de servicio cuentan con sistemas de ventilación natural y/o forzada que permita el flujo del aire y la no acumulación de olores.","description":"Las áreas de servicio cuentan con sistemas de ventilación natural y/o forzada que permita el flujo del aire y la no acumulación de olores.","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,41","score":4,"register_type_id":11},"attach":[]},
 </v>
@@ -19932,7 +19941,7 @@
       <c r="J89" s="17">
         <v>4</v>
       </c>
-      <c r="K89" s="39" t="str">
+      <c r="K89" s="40" t="str">
         <f>CONCATENATE($A$1,A89,$B$1,B89,$C$1,B89,$D$1,D89,$E$1,E89,$F$1,F89,$G$1,G89,$H$1,$I$1,I89,$J$1,J89,$K$1)</f>
         <v>{"Requisite":{"id":222,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con vestíbulo o sala de espera, en el cual podrá instalarse un bar independiente del comedor del restaurante","description":"Cuenta con vestíbulo o sala de espera, en el cual podrá instalarse un bar independiente del comedor del restaurante","father_code":"4","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"4,42","score":4,"register_type_id":11},"attach":[]},
 </v>
@@ -20058,8 +20067,8 @@
   <sheetPr/>
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G46"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -20152,7 +20161,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>17</v>
@@ -20161,11 +20170,11 @@
         <v>3.1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE($A$1,A3,$B$1,B3,$C$1,B3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,$I$1,I3,$J$1,J3,$K$1)</f>
-        <v>{"Requisite":{"id":224,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":224,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20183,7 +20192,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>17</v>
@@ -20192,11 +20201,11 @@
         <v>3.2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE($A$1,A4,$B$1,B4,$C$1,B4,$D$1,D4,$E$1,E4,$F$1,F4,$G$1,G4,$H$1,$I$1,I4,$J$1,J4,$K$1)</f>
-        <v>{"Requisite":{"id":225,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":225,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20214,7 +20223,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>17</v>
@@ -20223,11 +20232,11 @@
         <v>3.3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
         <f>CONCATENATE($A$1,A5,$B$1,B5,$C$1,B5,$D$1,D5,$E$1,E5,$F$1,F5,$G$1,G5,$H$1,$I$1,I5,$J$1,J5,$K$1)</f>
-        <v>{"Requisite":{"id":226,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","description":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":226,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","description":"Cuenta con el 40% del personal cualificado en manejo de bebidas alcohólicas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20245,7 +20254,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>17</v>
@@ -20254,11 +20263,11 @@
         <v>3.4</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="str">
         <f>CONCATENATE($A$1,A6,$B$1,B6,$C$1,B6,$D$1,D6,$E$1,E6,$F$1,F6,$G$1,G6,$H$1,$I$1,I6,$J$1,J6,$K$1)</f>
-        <v>{"Requisite":{"id":227,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":227,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20276,7 +20285,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>17</v>
@@ -20285,11 +20294,11 @@
         <v>3.5</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="str">
         <f>CONCATENATE($A$1,A7,$B$1,B7,$C$1,B7,$D$1,D7,$E$1,E7,$F$1,F7,$G$1,G7,$H$1,$I$1,I7,$J$1,J7,$K$1)</f>
-        <v>{"Requisite":{"id":228,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,5","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":228,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20307,7 +20316,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>17</v>
@@ -20316,11 +20325,11 @@
         <v>3.6</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE($A$1,A8,$B$1,B8,$C$1,B8,$D$1,D8,$E$1,E8,$F$1,F8,$G$1,G8,$H$1,$I$1,I8,$J$1,J8,$K$1)</f>
-        <v>{"Requisite":{"id":229,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,6","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":229,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sistema de iluminación de emergencia.","description":"Contar con sistema de iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20338,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>17</v>
@@ -20347,11 +20356,11 @@
         <v>3.7</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="str">
         <f>CONCATENATE($A$1,A9,$B$1,B9,$C$1,B9,$D$1,D9,$E$1,E9,$F$1,F9,$G$1,G9,$H$1,$I$1,I9,$J$1,J9,$K$1)</f>
-        <v>{"Requisite":{"id":230,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,7","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":230,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,7","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20401,7 +20410,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>17</v>
@@ -20410,11 +20419,11 @@
         <v>93</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE($A$1,A11,$B$1,B11,$C$1,B11,$D$1,D11,$E$1,E11,$F$1,F11,$G$1,G11,$H$1,$I$1,I11,$J$1,J11,$K$1)</f>
-        <v>{"Requisite":{"id":232,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3.8.1","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":232,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.1","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20432,7 +20441,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>17</v>
@@ -20441,11 +20450,11 @@
         <v>94</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="str">
         <f>CONCATENATE($A$1,A12,$B$1,B12,$C$1,B12,$D$1,D12,$E$1,E12,$F$1,F12,$G$1,G12,$H$1,$I$1,I12,$J$1,J12,$K$1)</f>
-        <v>{"Requisite":{"id":233,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3.8.2","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":233,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.2","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20463,7 +20472,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>17</v>
@@ -20472,11 +20481,11 @@
         <v>95</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="str">
         <f>CONCATENATE($A$1,A13,$B$1,B13,$C$1,B13,$D$1,D13,$E$1,E13,$F$1,F13,$G$1,G13,$H$1,$I$1,I13,$J$1,J13,$K$1)</f>
-        <v>{"Requisite":{"id":234,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3.8.3","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":234,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,8","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.8.3","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20494,7 +20503,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>17</v>
@@ -20503,11 +20512,11 @@
         <v>3.9</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="str">
         <f>CONCATENATE($A$1,A14,$B$1,B14,$C$1,B14,$D$1,D14,$E$1,E14,$F$1,F14,$G$1,G14,$H$1,$I$1,I14,$J$1,J14,$K$1)</f>
-        <v>{"Requisite":{"id":235,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,9","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":235,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20525,17 +20534,17 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="str">
         <f>CONCATENATE($A$1,A15,$B$1,B15,$C$1,B15,$D$1,D15,$E$1,E15,$F$1,F15,$G$1,G15,$H$1,$I$1,I15,$J$1,J15,$K$1)</f>
-        <v>{"Requisite":{"id":236,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":236,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20553,7 +20562,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>17</v>
@@ -20562,11 +20571,11 @@
         <v>3.1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE($A$1,A16,$B$1,B16,$C$1,B16,$D$1,D16,$E$1,E16,$F$1,F16,$G$1,G16,$H$1,$I$1,I16,$J$1,J16,$K$1)</f>
-        <v>{"Requisite":{"id":237,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":237,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20584,7 +20593,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>17</v>
@@ -20593,11 +20602,11 @@
         <v>3.11</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="str">
         <f>CONCATENATE($A$1,A17,$B$1,B17,$C$1,B17,$D$1,D17,$E$1,E17,$F$1,F17,$G$1,G17,$H$1,$I$1,I17,$J$1,J17,$K$1)</f>
-        <v>{"Requisite":{"id":238,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,11","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":238,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La, vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20615,7 +20624,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>17</v>
@@ -20624,11 +20633,11 @@
         <v>3.12</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="str">
         <f>CONCATENATE($A$1,A18,$B$1,B18,$C$1,B18,$D$1,D18,$E$1,E18,$F$1,F18,$G$1,G18,$H$1,$I$1,I18,$J$1,J18,$K$1)</f>
-        <v>{"Requisite":{"id":239,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,12","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":239,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20646,7 +20655,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>17</v>
@@ -20655,11 +20664,11 @@
         <v>3.13</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE($A$1,A19,$B$1,B19,$C$1,B19,$D$1,D19,$E$1,E19,$F$1,F19,$G$1,G19,$H$1,$I$1,I19,$J$1,J19,$K$1)</f>
-        <v>{"Requisite":{"id":240,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación. ","description":"Contar con sumideros en áreas de preparación. ","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,13","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":240,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación. ","description":"Contar con sumideros en áreas de preparación. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20677,7 +20686,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>17</v>
@@ -20686,11 +20695,11 @@
         <v>3.14</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="str">
         <f>CONCATENATE($A$1,A20,$B$1,B20,$C$1,B20,$D$1,D20,$E$1,E20,$F$1,F20,$G$1,G20,$H$1,$I$1,I20,$J$1,J20,$K$1)</f>
-        <v>{"Requisite":{"id":241,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Áreas del establecimiento cuentan con sistemas de ventilación forzada que permita el flujo de aire y la no acumulación de olores.","description":"Áreas del establecimiento cuentan con sistemas de ventilación forzada que permita el flujo de aire y la no acumulación de olores.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,14","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":241,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Áreas del establecimiento cuentan con sistemas de ventilación forzada que permita el flujo de aire y la no acumulación de olores.","description":"Áreas del establecimiento cuentan con sistemas de ventilación forzada que permita el flujo de aire y la no acumulación de olores.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20708,7 +20717,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>17</v>
@@ -20717,11 +20726,11 @@
         <v>3.15</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="str">
         <f>CONCATENATE($A$1,A21,$B$1,B21,$C$1,B21,$D$1,D21,$E$1,E21,$F$1,F21,$G$1,G21,$H$1,$I$1,I21,$J$1,J21,$K$1)</f>
-        <v>{"Requisite":{"id":242,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de energía eléctrica en el establecimiento.","description":"Contar con suministro de energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,15","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":242,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de energía eléctrica en el establecimiento.","description":"Contar con suministro de energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20739,7 +20748,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>17</v>
@@ -20748,11 +20757,11 @@
         <v>3.16</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="str">
         <f>CONCATENATE($A$1,A22,$B$1,B22,$C$1,B22,$D$1,D22,$E$1,E22,$F$1,F22,$G$1,G22,$H$1,$I$1,I22,$J$1,J22,$K$1)</f>
-        <v>{"Requisite":{"id":243,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,16","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":243,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20770,7 +20779,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>17</v>
@@ -20779,11 +20788,11 @@
         <v>3.17</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="str">
         <f>CONCATENATE($A$1,A23,$B$1,B23,$C$1,B23,$D$1,D23,$E$1,E23,$F$1,F23,$G$1,G23,$H$1,$I$1,I23,$J$1,J23,$K$1)</f>
-        <v>{"Requisite":{"id":244,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,17","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":244,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20801,7 +20810,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>17</v>
@@ -20810,11 +20819,11 @@
         <v>3.18</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="str">
         <f>CONCATENATE($A$1,A24,$B$1,B24,$C$1,B24,$D$1,D24,$E$1,E24,$F$1,F24,$G$1,G24,$H$1,$I$1,I24,$J$1,J24,$K$1)</f>
-        <v>{"Requisite":{"id":245,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,18","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":245,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20832,7 +20841,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>17</v>
@@ -20841,11 +20850,11 @@
         <v>3.19</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="str">
         <f>CONCATENATE($A$1,A25,$B$1,B25,$C$1,B25,$D$1,D25,$E$1,E25,$F$1,F25,$G$1,G25,$H$1,$I$1,I25,$J$1,J25,$K$1)</f>
-        <v>{"Requisite":{"id":246,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,19","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":246,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20863,7 +20872,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>17</v>
@@ -20872,11 +20881,11 @@
         <v>3.2</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="str">
         <f>CONCATENATE($A$1,A26,$B$1,B26,$C$1,B26,$D$1,D26,$E$1,E26,$F$1,F26,$G$1,G26,$H$1,$I$1,I26,$J$1,J26,$K$1)</f>
-        <v>{"Requisite":{"id":247,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje, licores, separada del área de preparación de bebidas.","description":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje, licores, separada del área de preparación de bebidas.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":247,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje, licores, separada del área de preparación de bebidas.","description":"Contar con bodega (s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza, menaje, licores, separada del área de preparación de bebidas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20894,7 +20903,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>17</v>
@@ -20903,11 +20912,11 @@
         <v>3.21</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="str">
         <f>CONCATENATE($A$1,A27,$B$1,B27,$C$1,B27,$D$1,D27,$E$1,E27,$F$1,F27,$G$1,G27,$H$1,$I$1,I27,$J$1,J27,$K$1)</f>
-        <v>{"Requisite":{"id":248,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,21","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":248,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20925,7 +20934,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>17</v>
@@ -20934,11 +20943,11 @@
         <v>3.22</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="str">
         <f>CONCATENATE($A$1,A28,$B$1,B28,$C$1,B28,$D$1,D28,$E$1,E28,$F$1,F28,$G$1,G28,$H$1,$I$1,I28,$J$1,J28,$K$1)</f>
-        <v>{"Requisite":{"id":249,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,22","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":249,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20956,7 +20965,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>17</v>
@@ -20965,11 +20974,11 @@
         <v>3.23</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="str">
         <f>CONCATENATE($A$1,A29,$B$1,B29,$C$1,B29,$D$1,D29,$E$1,E29,$F$1,F29,$G$1,G29,$H$1,$I$1,I29,$J$1,J29,$K$1)</f>
-        <v>{"Requisite":{"id":250,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,23","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":250,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -20987,7 +20996,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>17</v>
@@ -20996,11 +21005,11 @@
         <v>3.24</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="str">
         <f>CONCATENATE($A$1,A30,$B$1,B30,$C$1,B30,$D$1,D30,$E$1,E30,$F$1,F30,$G$1,G30,$H$1,$I$1,I30,$J$1,J30,$K$1)</f>
-        <v>{"Requisite":{"id":251,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,24","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":251,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21018,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>17</v>
@@ -21027,11 +21036,11 @@
         <v>3.25</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="str">
         <f>CONCATENATE($A$1,A31,$B$1,B31,$C$1,B31,$D$1,D31,$E$1,E31,$F$1,F31,$G$1,G31,$H$1,$I$1,I31,$J$1,J31,$K$1)</f>
-        <v>{"Requisite":{"id":252,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,25","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":252,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21049,7 +21058,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>17</v>
@@ -21058,11 +21067,11 @@
         <v>3.26</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="str">
         <f>CONCATENATE($A$1,A32,$B$1,B32,$C$1,B32,$D$1,D32,$E$1,E32,$F$1,F32,$G$1,G32,$H$1,$I$1,I32,$J$1,J32,$K$1)</f>
-        <v>{"Requisite":{"id":253,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,26","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":253,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21080,7 +21089,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>17</v>
@@ -21089,11 +21098,11 @@
         <v>3.27</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="str">
         <f>CONCATENATE($A$1,A33,$B$1,B33,$C$1,B33,$D$1,D33,$E$1,E33,$F$1,F33,$G$1,G33,$H$1,$I$1,I33,$J$1,J33,$K$1)</f>
-        <v>{"Requisite":{"id":254,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,27","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":254,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21111,7 +21120,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>17</v>
@@ -21120,11 +21129,11 @@
         <v>3.28</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="str">
         <f>CONCATENATE($A$1,A34,$B$1,B34,$C$1,B34,$D$1,D34,$E$1,E34,$F$1,F34,$G$1,G34,$H$1,$I$1,I34,$J$1,J34,$K$1)</f>
-        <v>{"Requisite":{"id":255,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un Plan de Contingencia aprobado por Secretaria de Gestión de Riesgos o la Unidad respectiva de cada GAD.","description":"Contar con un Plan de Contingencia aprobado por Secretaria de Gestión de Riesgos o la Unidad respectiva de cada GAD.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,28","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":255,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un Plan de Contingencia aprobado por Secretaria de Gestión de Riesgos o la Unidad respectiva de cada GAD.","description":"Contar con un Plan de Contingencia aprobado por Secretaria de Gestión de Riesgos o la Unidad respectiva de cada GAD.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21142,7 +21151,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>17</v>
@@ -21151,11 +21160,11 @@
         <v>3.29</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="str">
         <f>CONCATENATE($A$1,A35,$B$1,B35,$C$1,B35,$D$1,D35,$E$1,E35,$F$1,F35,$G$1,G35,$H$1,$I$1,I35,$J$1,J35,$K$1)</f>
-        <v>{"Requisite":{"id":256,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El establecimiento debe contar  con aislamiento acústico que garantice la insonorización a los estándares permitidos.","description":"El establecimiento debe contar  con aislamiento acústico que garantice la insonorización a los estándares permitidos.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,29","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":256,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El establecimiento debe contar  con aislamiento acústico que garantice la insonorización a los estándares permitidos.","description":"El establecimiento debe contar  con aislamiento acústico que garantice la insonorización a los estándares permitidos.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21173,7 +21182,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>17</v>
@@ -21182,11 +21191,11 @@
         <v>3.3</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="str">
         <f>CONCATENATE($A$1,A36,$B$1,B36,$C$1,B36,$D$1,D36,$E$1,E36,$F$1,F36,$G$1,G36,$H$1,$I$1,I36,$J$1,J36,$K$1)</f>
-        <v>{"Requisite":{"id":257,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con salida (s) de emergencia identificadas y habilitadas.","description":"Debe contar con salida (s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":257,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe contar con salida (s) de emergencia identificadas y habilitadas.","description":"Debe contar con salida (s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21204,7 +21213,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>17</v>
@@ -21213,11 +21222,11 @@
         <v>3.31</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="str">
         <f>CONCATENATE($A$1,A37,$B$1,B37,$C$1,B37,$D$1,D37,$E$1,E37,$F$1,F37,$G$1,G37,$H$1,$I$1,I37,$J$1,J37,$K$1)</f>
-        <v>{"Requisite":{"id":258,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con instalaciones eléctricas aisladas, protegidas y fijas según las disposiciones de la autoridad competente.","description":"Contar con instalaciones eléctricas aisladas, protegidas y fijas según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,31","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":258,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con instalaciones eléctricas aisladas, protegidas y fijas según las disposiciones de la autoridad competente.","description":"Contar con instalaciones eléctricas aisladas, protegidas y fijas según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21235,7 +21244,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>17</v>
@@ -21244,11 +21253,11 @@
         <v>3.32</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="str">
         <f>CONCATENATE($A$1,A38,$B$1,B38,$C$1,B38,$D$1,D38,$E$1,E38,$F$1,F38,$G$1,G38,$H$1,$I$1,I38,$J$1,J38,$K$1)</f>
-        <v>{"Requisite":{"id":259,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar  con un área específica de bar.","description":"Contar  con un área específica de bar.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,32","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":259,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar  con un área específica de bar.","description":"Contar  con un área específica de bar.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21266,7 +21275,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>17</v>
@@ -21275,11 +21284,11 @@
         <v>3.33</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="str">
         <f>CONCATENATE($A$1,A39,$B$1,B39,$C$1,B39,$D$1,D39,$E$1,E39,$F$1,F39,$G$1,G39,$H$1,$I$1,I39,$J$1,J39,$K$1)</f>
-        <v>{"Requisite":{"id":260,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pista de baile.","description":"Contar con pista de baile.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,33","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":260,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pista de baile.","description":"Contar con pista de baile.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21297,7 +21306,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>17</v>
@@ -21306,11 +21315,11 @@
         <v>3.34</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="str">
         <f>CONCATENATE($A$1,A40,$B$1,B40,$C$1,B40,$D$1,D40,$E$1,E40,$F$1,F40,$G$1,G40,$H$1,$I$1,I40,$J$1,J40,$K$1)</f>
-        <v>{"Requisite":{"id":261,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un plan de limpieza.","description":"Contar con un plan de limpieza.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,34","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":261,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un plan de limpieza.","description":"Contar con un plan de limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21328,7 +21337,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>17</v>
@@ -21337,11 +21346,11 @@
         <v>3.35</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="str">
         <f>CONCATENATE($A$1,A41,$B$1,B41,$C$1,B41,$D$1,D41,$E$1,E41,$F$1,F41,$G$1,G41,$H$1,$I$1,I41,$J$1,J41,$K$1)</f>
-        <v>{"Requisite":{"id":262,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con cámaras de seguridad interconectadas con el ECU 911.","description":"Contar con cámaras de seguridad interconectadas con el ECU 911.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,35","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":262,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con cámaras de seguridad interconectadas con el ECU 911.","description":"Contar con cámaras de seguridad interconectadas con el ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21359,7 +21368,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>17</v>
@@ -21368,11 +21377,11 @@
         <v>3.36</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE($A$1,A42,$B$1,B42,$C$1,B42,$D$1,D42,$E$1,E42,$F$1,F42,$G$1,G42,$H$1,$I$1,I42,$J$1,J42,$K$1)</f>
-        <v>{"Requisite":{"id":263,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","description":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,36","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":263,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","description":"Cuenta con personal de seguridad capacitado y certificado debidamente identificado.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21390,7 +21399,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>17</v>
@@ -21399,11 +21408,11 @@
         <v>3.37</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="str">
         <f>CONCATENATE($A$1,A43,$B$1,B43,$C$1,B43,$D$1,D43,$E$1,E43,$F$1,F43,$G$1,G43,$H$1,$I$1,I43,$J$1,J43,$K$1)</f>
-        <v>{"Requisite":{"id":264,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La oferta de bebidas deberá presentarse mediante menú  a sus consumidores, con sus respectivos precios incluido impuestos, misma que deberá detallarse.","description":"La oferta de bebidas deberá presentarse mediante menú  a sus consumidores, con sus respectivos precios incluido impuestos, misma que deberá detallarse.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,37","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":264,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La oferta de bebidas deberá presentarse mediante menú  a sus consumidores, con sus respectivos precios incluido impuestos, misma que deberá detallarse.","description":"La oferta de bebidas deberá presentarse mediante menú  a sus consumidores, con sus respectivos precios incluido impuestos, misma que deberá detallarse.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21421,7 +21430,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>17</v>
@@ -21430,11 +21439,11 @@
         <v>3.38</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="str">
         <f>CONCATENATE($A$1,A44,$B$1,B44,$C$1,B44,$D$1,D44,$E$1,E44,$F$1,F44,$G$1,G44,$H$1,$I$1,I44,$J$1,J44,$K$1)</f>
-        <v>{"Requisite":{"id":265,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias","description":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,38","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":265,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias","description":"Debe mostrar registros visibles de limpieza diaria de baños y/o baterías sanitarias","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21452,7 +21461,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>17</v>
@@ -21461,11 +21470,11 @@
         <v>3.39</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="str">
         <f>CONCATENATE($A$1,A45,$B$1,B45,$C$1,B45,$D$1,D45,$E$1,E45,$F$1,F45,$G$1,G45,$H$1,$I$1,I45,$J$1,J45,$K$1)</f>
-        <v>{"Requisite":{"id":266,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,39","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":266,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -21483,7 +21492,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>17</v>
@@ -21492,11 +21501,11 @@
         <v>3.4</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="str">
         <f>CONCATENATE($A$1,A46,$B$1,B46,$C$1,B46,$D$1,D46,$E$1,E46,$F$1,F46,$G$1,G46,$H$1,$I$1,I46,$J$1,J46,$K$1)</f>
-        <v>{"Requisite":{"id":267,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":false,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":18},"attach":[]},
+        <v>{"Requisite":{"id":267,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":18},"attach":[]},
 </v>
       </c>
     </row>
@@ -22062,15 +22071,16 @@
   <sheetPr/>
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.5166666666667"/>
     <col min="2" max="2" width="54.0416666666667" customWidth="1"/>
-    <col min="3" max="8" width="11.5166666666667"/>
+    <col min="3" max="3" width="7.25" customWidth="1"/>
+    <col min="4" max="8" width="11.5166666666667"/>
     <col min="9" max="9" width="11.5166666666667" style="9"/>
     <col min="10" max="1025" width="11.5166666666667"/>
   </cols>
@@ -23026,8 +23036,8 @@
   <sheetPr/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F26"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F17" sqref="F3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -23892,8 +23902,8 @@
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -25262,10 +25272,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -25302,11 +25312,11 @@
       <c r="B3" t="s">
         <v>255</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="37">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>27</v>
+      <c r="D3" s="37">
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>256</v>
@@ -25328,11 +25338,11 @@
       <c r="B4" t="s">
         <v>258</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
+      <c r="C4" s="37">
+        <v>6</v>
+      </c>
+      <c r="D4" s="37">
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>259</v>
@@ -25357,11 +25367,11 @@
       <c r="B5" t="s">
         <v>261</v>
       </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>34</v>
+      <c r="C5" s="37">
+        <v>11</v>
+      </c>
+      <c r="D5" s="37">
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>262</v>
@@ -25392,11 +25402,11 @@
       <c r="B6" t="s">
         <v>264</v>
       </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
+      <c r="C6" s="37">
+        <v>18</v>
+      </c>
+      <c r="D6" s="37">
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>265</v>
@@ -25421,11 +25431,11 @@
       <c r="B7" t="s">
         <v>267</v>
       </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>44</v>
+      <c r="C7" s="37">
+        <v>23</v>
+      </c>
+      <c r="D7" s="37">
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>268</v>
@@ -25441,11 +25451,11 @@
       <c r="B8" t="s">
         <v>270</v>
       </c>
-      <c r="C8">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>46</v>
+      <c r="C8" s="37">
+        <v>26</v>
+      </c>
+      <c r="D8" s="37">
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>271</v>
@@ -25461,11 +25471,11 @@
       <c r="B9" t="s">
         <v>273</v>
       </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>48</v>
+      <c r="C9" s="37">
+        <v>29</v>
+      </c>
+      <c r="D9" s="37">
+        <v>60</v>
       </c>
       <c r="E9" t="s">
         <v>274</v>
@@ -25477,85 +25487,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="4:7">
       <c r="D15" t="s">
         <v>276</v>
       </c>
       <c r="E15" s="37"/>
-    </row>
-    <row r="16" spans="4:6">
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="4:7">
       <c r="D16" t="s">
         <v>255</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="37">
         <v>2</v>
       </c>
       <c r="F16">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="4:6">
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="4:7">
       <c r="D17" t="s">
         <v>258</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="37">
         <v>3</v>
       </c>
       <c r="F17">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="4:6">
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="4:7">
       <c r="D18" t="s">
         <v>261</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="37">
         <v>9</v>
       </c>
       <c r="F18">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="4:5">
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="4:7">
       <c r="D20" t="s">
         <v>277</v>
       </c>
       <c r="E20" s="21"/>
-    </row>
-    <row r="21" spans="4:6">
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="4:7">
       <c r="D21" t="s">
         <v>255</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="21">
         <v>2</v>
       </c>
       <c r="F21">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="4:6">
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="4:7">
       <c r="D22" t="s">
         <v>258</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="21">
         <v>3</v>
       </c>
       <c r="F22">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="4:6">
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="4:7">
       <c r="D23" t="s">
         <v>261</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="21">
         <v>9</v>
       </c>
       <c r="F23">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="4:6">
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="4:7">
       <c r="D24" t="s">
         <v>267</v>
       </c>
@@ -25565,8 +25586,9 @@
       <c r="F24">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="4:6">
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="4:7">
       <c r="D25" t="s">
         <v>273</v>
       </c>
@@ -25576,6 +25598,10 @@
       <c r="F25">
         <v>48</v>
       </c>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25595,14 +25621,14 @@
   <sheetPr/>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G44"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="1" width="8.46666666666667" customWidth="1"/>
-    <col min="2" max="2" width="63.4" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
     <col min="3" max="3" width="6.80833333333333" customWidth="1"/>
     <col min="4" max="4" width="9.30833333333333" customWidth="1"/>
     <col min="5" max="5" width="12.3666666666667" customWidth="1"/>
@@ -25707,11 +25733,11 @@
         <v>3.1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE($A$1,A3,$B$1,B3,$C$1,B3,$D$1,D3,$E$1,E3,$F$1,F3,$G$1,G3,$H$1,$I$1,I3,$J$1,J3,$K$1)</f>
-        <v>{"Requisite":{"id":379,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":379,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","description":"Certificado de informe de compatibilidad positiva o favorable de uso de suelo otorgado por el Gobierno Autónomo Descentralizado. ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -25740,11 +25766,11 @@
         <v>3.2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE($A$1,A4,$B$1,B4,$C$1,B4,$D$1,D4,$E$1,E4,$F$1,F4,$G$1,G4,$H$1,$I$1,I4,$J$1,J4,$K$1)</f>
-        <v>{"Requisite":{"id":380,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":380,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","description":"Cuenta con el 40% del personal que acredite su capacitación, formación profesional o que posea certificación de competencias laborales para ofertar el servicio de alimentos y bebidas","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -25773,11 +25799,11 @@
         <v>3.3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
         <f>CONCATENATE($A$1,A5,$B$1,B5,$C$1,B5,$D$1,D5,$E$1,E5,$F$1,F5,$G$1,G5,$H$1,$I$1,I5,$J$1,J5,$K$1)</f>
-        <v>{"Requisite":{"id":381,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":381,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","description":"Tener acceso universal el establecimiento e instalaciones, con facilidades para el uso de personas con discapacidad. (En caso de establecimientos existentes contar con ayudas técnicas o servicio personalizado que haya aprobado el curso de atención al turista con discapacidades emitido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -25806,11 +25832,11 @@
         <v>3.4</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="str">
         <f>CONCATENATE($A$1,A6,$B$1,B6,$C$1,B6,$D$1,D6,$E$1,E6,$F$1,F6,$G$1,G6,$H$1,$I$1,I6,$J$1,J6,$K$1)</f>
-        <v>{"Requisite":{"id":382,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":382,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","description":"Contar con manejo de desperdicios en contenedores con tapa, identificados por tipo de desperdicio.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,4","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -25839,11 +25865,11 @@
         <v>3.5</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="str">
         <f>CONCATENATE($A$1,A7,$B$1,B7,$C$1,B7,$D$1,D7,$E$1,E7,$F$1,F7,$G$1,G7,$H$1,$I$1,I7,$J$1,J7,$K$1)</f>
-        <v>{"Requisite":{"id":383,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con iluminación de emergencia.","description":"Contar con iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":383,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con iluminación de emergencia.","description":"Contar con iluminación de emergencia.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,5","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -25872,11 +25898,11 @@
         <v>3.6</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE($A$1,A8,$B$1,B8,$C$1,B8,$D$1,D8,$E$1,E8,$F$1,F8,$G$1,G8,$H$1,$I$1,I8,$J$1,J8,$K$1)</f>
-        <v>{"Requisite":{"id":384,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":384,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","description":"Identificar y señalizar las zonas de evacuación, puntos de encuentro, salidas de emergencia, extintores y mangueras según las disposiciones de la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,6","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -25904,7 +25930,7 @@
       <c r="I9">
         <v>3.7</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="str">
@@ -25938,11 +25964,11 @@
         <v>26</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="str">
         <f>CONCATENATE($A$1,A10,$B$1,B10,$C$1,B10,$D$1,D10,$E$1,E10,$F$1,F10,$G$1,G10,$H$1,$I$1,I10,$J$1,J10,$K$1)</f>
-        <v>{"Requisite":{"id":386,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.1","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":386,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"a. Dispensador de jabón con este elemento disponible.","description":"a. Dispensador de jabón con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.1","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -25971,11 +25997,11 @@
         <v>28</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE($A$1,A11,$B$1,B11,$C$1,B11,$D$1,D11,$E$1,E11,$F$1,F11,$G$1,G11,$H$1,$I$1,I11,$J$1,J11,$K$1)</f>
-        <v>{"Requisite":{"id":387,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.2","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":387,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"b. Dispensador de toallas de mano desechables con este elemento disponible.","description":"b. Dispensador de toallas de mano desechables con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.2","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26004,11 +26030,11 @@
         <v>30</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="str">
         <f>CONCATENATE($A$1,A12,$B$1,B12,$C$1,B12,$D$1,D12,$E$1,E12,$F$1,F12,$G$1,G12,$H$1,$I$1,I12,$J$1,J12,$K$1)</f>
-        <v>{"Requisite":{"id":388,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.3","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":388,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"c. Dispensador de desinfectante con este elemento disponible.","description":"c. Dispensador de desinfectante con este elemento disponible.","father_code":"3,7","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3.7.3","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26037,11 +26063,11 @@
         <v>3.8</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="str">
         <f>CONCATENATE($A$1,A13,$B$1,B13,$C$1,B13,$D$1,D13,$E$1,E13,$F$1,F13,$G$1,G13,$H$1,$I$1,I13,$J$1,J13,$K$1)</f>
-        <v>{"Requisite":{"id":389,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,8","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":389,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro de agua permanente en el establecimiento.","description":"Contar con suministro de agua permanente en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,8","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26070,11 +26096,11 @@
         <v>3.9</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="str">
         <f>CONCATENATE($A$1,A14,$B$1,B14,$C$1,B14,$D$1,D14,$E$1,E14,$F$1,F14,$G$1,G14,$H$1,$I$1,I14,$J$1,J14,$K$1)</f>
-        <v>{"Requisite":{"id":390,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":390,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con alarma de incendios y/o detector de humo.","description":"Contar con alarma de incendios y/o detector de humo.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,9","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26103,11 +26129,11 @@
         <v>3.1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="str">
         <f>CONCATENATE($A$1,A15,$B$1,B15,$C$1,B15,$D$1,D15,$E$1,E15,$F$1,F15,$G$1,G15,$H$1,$I$1,I15,$J$1,J15,$K$1)</f>
-        <v>{"Requisite":{"id":391,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":391,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","description":"Los alimentos, deben estar sobre estanterías o repisas limpias y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso (no se permite el uso de madera, no oxidadas), deben ser de material de fácil limpieza.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,1","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26136,11 +26162,11 @@
         <v>3.11</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE($A$1,A16,$B$1,B16,$C$1,B16,$D$1,D16,$E$1,E16,$F$1,F16,$G$1,G16,$H$1,$I$1,I16,$J$1,J16,$K$1)</f>
-        <v>{"Requisite":{"id":392,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":392,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","description":"La vajilla, cristalería, cubertería e implementos de cocina deben estar sobre estanterías o repisas en buenas condiciones, limpios y a una distancia mínima de 15 cm. del piso, 50 cm. entre hileras y 15 cm. de la pared. No deben estar en contacto con el piso.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,11","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26169,11 +26195,11 @@
         <v>3.12</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="str">
         <f>CONCATENATE($A$1,A17,$B$1,B17,$C$1,B17,$D$1,D17,$E$1,E17,$F$1,F17,$G$1,G17,$H$1,$I$1,I17,$J$1,J17,$K$1)</f>
-        <v>{"Requisite":{"id":393,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento de acuerdo a los establecido por la autoridad competente","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento de acuerdo a los establecido por la autoridad competente","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":393,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento de acuerdo a los establecido por la autoridad competente","description":"Exhibir en un lugar visible al consumidor el aforo permitido en el establecimiento de acuerdo a los establecido por la autoridad competente","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,12","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26202,11 +26228,11 @@
         <v>3.13</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="str">
         <f>CONCATENATE($A$1,A18,$B$1,B18,$C$1,B18,$D$1,D18,$E$1,E18,$F$1,F18,$G$1,G18,$H$1,$I$1,I18,$J$1,J18,$K$1)</f>
-        <v>{"Requisite":{"id":394,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación de alimentos.","description":"Contar con sumideros en áreas de preparación de alimentos.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":394,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con sumideros en áreas de preparación de alimentos.","description":"Contar con sumideros en áreas de preparación de alimentos.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,13","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26235,11 +26261,11 @@
         <v>3.14</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE($A$1,A19,$B$1,B19,$C$1,B19,$D$1,D19,$E$1,E19,$F$1,F19,$G$1,G19,$H$1,$I$1,I19,$J$1,J19,$K$1)</f>
-        <v>{"Requisite":{"id":395,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":395,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente","description":"Contar con baños y/o baterías sanitarias en cumplimiento con el marco legal vigente","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,14","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26268,11 +26294,11 @@
         <v>3.15</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="str">
         <f>CONCATENATE($A$1,A20,$B$1,B20,$C$1,B20,$D$1,D20,$E$1,E20,$F$1,F20,$G$1,G20,$H$1,$I$1,I20,$J$1,J20,$K$1)</f>
-        <v>{"Requisite":{"id":396,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Nota: se exceptúa para los centros comerciales y/o edificaciones que compartan baños que a su vez cumplan con el marco legal.","description":"Nota: se exceptúa para los centros comerciales y/o edificaciones que compartan baños que a su vez cumplan con el marco legal.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":396,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Nota: se exceptúa para los centros comerciales y/o edificaciones que compartan baños que a su vez cumplan con el marco legal.","description":"Nota: se exceptúa para los centros comerciales y/o edificaciones que compartan baños que a su vez cumplan con el marco legal.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,15","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26301,11 +26327,11 @@
         <v>3.16</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="str">
         <f>CONCATENATE($A$1,A21,$B$1,B21,$C$1,B21,$D$1,D21,$E$1,E21,$F$1,F21,$G$1,G21,$H$1,$I$1,I21,$J$1,J21,$K$1)</f>
-        <v>{"Requisite":{"id":397,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":397,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","description":"Contar con menú de alimentos y bebidas que incluya precio con impuestos, exhibidos al público y legibles.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,16","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26334,11 +26360,11 @@
         <v>3.17</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="str">
         <f>CONCATENATE($A$1,A22,$B$1,B22,$C$1,B22,$D$1,D22,$E$1,E22,$F$1,F22,$G$1,G22,$H$1,$I$1,I22,$J$1,J22,$K$1)</f>
-        <v>{"Requisite":{"id":398,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":398,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","description":"Contar con personal uniformado de servicio: no uso de joyas, uso de uniforme limpio, uñas cortas, limpias, sin pintura de uñas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,17","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26367,11 +26393,11 @@
         <v>3.18</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="str">
         <f>CONCATENATE($A$1,A23,$B$1,B23,$C$1,B23,$D$1,D23,$E$1,E23,$F$1,F23,$G$1,G23,$H$1,$I$1,I23,$J$1,J23,$K$1)</f>
-        <v>{"Requisite":{"id":399,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":399,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","description":"Personal que manipula alimentos: no uso de joyas, uñas cortas, limpias, sin pintura de uñas, uniforme limpio y sin maquillaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,18","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26400,11 +26426,11 @@
         <v>3.19</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="str">
         <f>CONCATENATE($A$1,A24,$B$1,B24,$C$1,B24,$D$1,D24,$E$1,E24,$F$1,F24,$G$1,G24,$H$1,$I$1,I24,$J$1,J24,$K$1)</f>
-        <v>{"Requisite":{"id":400,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal del establecimiento debe usar protector para el cabello.","description":"El personal del establecimiento debe usar protector para el cabello.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":400,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal del establecimiento debe usar protector para el cabello.","description":"El personal del establecimiento debe usar protector para el cabello.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,19","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26433,11 +26459,11 @@
         <v>3.2</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="str">
         <f>CONCATENATE($A$1,A25,$B$1,B25,$C$1,B25,$D$1,D25,$E$1,E25,$F$1,F25,$G$1,G25,$H$1,$I$1,I25,$J$1,J25,$K$1)</f>
-        <v>{"Requisite":{"id":401,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":401,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","description":"Contar con un botiquín de primeros auxilios con contenido básico, según lo establecido en este reglamento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,2","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26466,11 +26492,11 @@
         <v>3.21</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="str">
         <f>CONCATENATE($A$1,A26,$B$1,B26,$C$1,B26,$D$1,D26,$E$1,E26,$F$1,F26,$G$1,G26,$H$1,$I$1,I26,$J$1,J26,$K$1)</f>
-        <v>{"Requisite":{"id":402,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Contar con registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":402,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con registros visibles de limpieza diaria de baños y/o baterías sanitarias.","description":"Contar con registros visibles de limpieza diaria de baños y/o baterías sanitarias.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,21","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26499,11 +26525,11 @@
         <v>3.22</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="str">
         <f>CONCATENATE($A$1,A27,$B$1,B27,$C$1,B27,$D$1,D27,$E$1,E27,$F$1,F27,$G$1,G27,$H$1,$I$1,I27,$J$1,J27,$K$1)</f>
-        <v>{"Requisite":{"id":403,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":403,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","description":"Contar con un registro quincenal de limpieza profunda del establecimiento turístico ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,22","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26532,11 +26558,11 @@
         <v>3.23</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="str">
         <f>CONCATENATE($A$1,A28,$B$1,B28,$C$1,B28,$D$1,D28,$E$1,E28,$F$1,F28,$G$1,G28,$H$1,$I$1,I28,$J$1,J28,$K$1)</f>
-        <v>{"Requisite":{"id":404,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":404,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","description":"Los horarios de atención del establecimiento deben estar exhibidos en un lugar visible al consumidor.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,23","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26565,11 +26591,11 @@
         <v>3.24</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="str">
         <f>CONCATENATE($A$1,A29,$B$1,B29,$C$1,B29,$D$1,D29,$E$1,E29,$F$1,F29,$G$1,G29,$H$1,$I$1,I29,$J$1,J29,$K$1)</f>
-        <v>{"Requisite":{"id":405,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega(s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","description":"Contar con bodega(s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":405,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con bodega(s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","description":"Contar con bodega(s) y/o compartimentos específicos para el almacenamiento de utilería, productos de limpieza y menaje.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,24","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26598,11 +26624,11 @@
         <v>3.25</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="str">
         <f>CONCATENATE($A$1,A30,$B$1,B30,$C$1,B30,$D$1,D30,$E$1,E30,$F$1,F30,$G$1,G30,$H$1,$I$1,I30,$J$1,J30,$K$1)</f>
-        <v>{"Requisite":{"id":406,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras). ","description":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras). ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":406,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras). ","description":"Contar con vajilla, cubiertos y cristalería en óptimas condiciones (que no estén rotas, despostilladas, sin signos de deterioro, entre otras). ","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,25","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26631,11 +26657,11 @@
         <v>3.26</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="str">
         <f>CONCATENATE($A$1,A31,$B$1,B31,$C$1,B31,$D$1,D31,$E$1,E31,$F$1,F31,$G$1,G31,$H$1,$I$1,I31,$J$1,J31,$K$1)</f>
-        <v>{"Requisite":{"id":407,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":407,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un registro documental de control de plagas.","description":"Contar con un registro documental de control de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,26","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26664,11 +26690,11 @@
         <v>3.27</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="str">
         <f>CONCATENATE($A$1,A32,$B$1,B32,$C$1,B32,$D$1,D32,$E$1,E32,$F$1,F32,$G$1,G32,$H$1,$I$1,I32,$J$1,J32,$K$1)</f>
-        <v>{"Requisite":{"id":408,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":408,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","description":"Contar con pisos o elementos antideslizantes en el área de producción (puede aplicar el uso de moquetas antideslizantes).","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,27","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26697,11 +26723,11 @@
         <v>3.28</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="str">
         <f>CONCATENATE($A$1,A33,$B$1,B33,$C$1,B33,$D$1,D33,$E$1,E33,$F$1,F33,$G$1,G33,$H$1,$I$1,I33,$J$1,J33,$K$1)</f>
-        <v>{"Requisite":{"id":409,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":409,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","description":"Todas las áreas de almacenamiento deben mantenerse limpias y protegidas contra ingreso de plagas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,28","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26730,11 +26756,11 @@
         <v>3.29</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="str">
         <f>CONCATENATE($A$1,A34,$B$1,B34,$C$1,B34,$D$1,D34,$E$1,E34,$F$1,F34,$G$1,G34,$H$1,$I$1,I34,$J$1,J34,$K$1)</f>
-        <v>{"Requisite":{"id":410,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":410,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","description":"El personal que manipula alimentos de manera directa e indirecta debe contar con un certificado médico actualizado que le habilita poder trabajar en dicha actividad, conforme a lo requerido por la autoridad competente.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,29","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26763,11 +26789,11 @@
         <v>3.3</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="str">
         <f>CONCATENATE($A$1,A35,$B$1,B35,$C$1,B35,$D$1,D35,$E$1,E35,$F$1,F35,$G$1,G35,$H$1,$I$1,I35,$J$1,J35,$K$1)</f>
-        <v>{"Requisite":{"id":411,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":411,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con un informativo del correcto lavado de manos en el área de producción.","description":"Contar con un informativo del correcto lavado de manos en el área de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,3","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26796,11 +26822,11 @@
         <v>3.31</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="str">
         <f>CONCATENATE($A$1,A36,$B$1,B36,$C$1,B36,$D$1,D36,$E$1,E36,$F$1,F36,$G$1,G36,$H$1,$I$1,I36,$J$1,J36,$K$1)</f>
-        <v>{"Requisite":{"id":412,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":412,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","description":"Exhibir en un lugar visible al consumidor el número del servicio integrado de seguridad ECU 911.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,31","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26829,11 +26855,11 @@
         <v>3.32</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="str">
         <f>CONCATENATE($A$1,A37,$B$1,B37,$C$1,B37,$D$1,D37,$E$1,E37,$F$1,F37,$G$1,G37,$H$1,$I$1,I37,$J$1,J37,$K$1)</f>
-        <v>{"Requisite":{"id":413,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":413,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","description":"Focos y lámparas de techo deben aislarse con protectores en caso de rotura en áreas de producción.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,32","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26862,11 +26888,11 @@
         <v>3.33</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="str">
         <f>CONCATENATE($A$1,A38,$B$1,B38,$C$1,B38,$D$1,D38,$E$1,E38,$F$1,F38,$G$1,G38,$H$1,$I$1,I38,$J$1,J38,$K$1)</f>
-        <v>{"Requisite":{"id":414,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":414,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","description":"Las superficies donde se preparan los alimentos son de materiales de fácil limpieza y lavables, resistentes a la corrosión, sin daños evidentes. Está prohibido el uso de madera y cerámica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,33","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26895,11 +26921,11 @@
         <v>3.34</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="str">
         <f>CONCATENATE($A$1,A39,$B$1,B39,$C$1,B39,$D$1,D39,$E$1,E39,$F$1,F39,$G$1,G39,$H$1,$I$1,I39,$J$1,J39,$K$1)</f>
-        <v>{"Requisite":{"id":415,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salida(s) de emergencia identificadas y habilitadas.","description":"Contar con salida(s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":415,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con salida(s) de emergencia identificadas y habilitadas.","description":"Contar con salida(s) de emergencia identificadas y habilitadas.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,34","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26928,11 +26954,11 @@
         <v>3.35</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="str">
         <f>CONCATENATE($A$1,A40,$B$1,B40,$C$1,B40,$D$1,D40,$E$1,E40,$F$1,F40,$G$1,G40,$H$1,$I$1,I40,$J$1,J40,$K$1)</f>
-        <v>{"Requisite":{"id":416,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro continuo de energía eléctrica.","description":"Contar con suministro continuo de energía eléctrica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":416,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con suministro continuo de energía eléctrica.","description":"Contar con suministro continuo de energía eléctrica.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,35","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26961,11 +26987,11 @@
         <v>3.36</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="str">
         <f>CONCATENATE($A$1,A41,$B$1,B41,$C$1,B41,$D$1,D41,$E$1,E41,$F$1,F41,$G$1,G41,$H$1,$I$1,I41,$J$1,J41,$K$1)</f>
-        <v>{"Requisite":{"id":417,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","description":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":417,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","description":"Contar con una política interna en la cual se mencione el horario de atención a proveedores y que no interfiera con la hora de alto tránsito de los clientes.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,36","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -26994,11 +27020,11 @@
         <v>3.37</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE($A$1,A42,$B$1,B42,$C$1,B42,$D$1,D42,$E$1,E42,$F$1,F42,$G$1,G42,$H$1,$I$1,I42,$J$1,J42,$K$1)</f>
-        <v>{"Requisite":{"id":418,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de servicio conoce el detalle del contenido de la carta.","description":"El personal de servicio conoce el detalle del contenido de la carta.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":418,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de servicio conoce el detalle del contenido de la carta.","description":"El personal de servicio conoce el detalle del contenido de la carta.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,37","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -27027,11 +27053,11 @@
         <v>3.38</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="str">
         <f>CONCATENATE($A$1,A43,$B$1,B43,$C$1,B43,$D$1,D43,$E$1,E43,$F$1,F43,$G$1,G43,$H$1,$I$1,I43,$J$1,J43,$K$1)</f>
-        <v>{"Requisite":{"id":419,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","description":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":419,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","description":"El personal de cocina conoce el detalle de la preparación de los platos que ofrece el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,38","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
@@ -27060,11 +27086,11 @@
         <v>3.39</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="str">
         <f>CONCATENATE($A$1,A44,$B$1,B44,$C$1,B44,$D$1,D44,$E$1,E44,$F$1,F44,$G$1,G44,$H$1,$I$1,I44,$J$1,J44,$K$1)</f>
-        <v>{"Requisite":{"id":420,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","description":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":1,"register_type_id":33},"attach":[]},
+        <v>{"Requisite":{"id":420,"created_at":"2019-11-25 09:28:02","updated_at":"2019-11-25 09:28:02","name":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","description":"Cuenta con letreros que promuevan el uso eficiente del agua y energía eléctrica en el establecimiento.","father_code":"3","to_approve":1,"mandatory":true,"type":"TRUE / FALSE","params":"","code":"3,39","score":0,"register_type_id":33},"attach":[]},
 </v>
       </c>
     </row>
